--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="323"/>
+    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="323" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="npc_heroes_custom" sheetId="5" r:id="rId1"/>
     <sheet name="__Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="__Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">npc_heroes_custom!$A$1:$AZ$5</definedName>
@@ -5845,7 +5846,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1493356B-36AA-4CB3-8462-F577AB055D7F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BC7B20F0-2275-44B2-80CF-5E5CD94F97C7}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -6128,7 +6129,7 @@
   <sheetPr/>
   <dimension ref="A1:BD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="G15" sqref="G15"/>
@@ -7078,7 +7079,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L48" sqref="L48"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16443,4 +16444,816 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B122" sqref="B2:B122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="str">
+        <f>""""&amp;__Sheet1!B2&amp;""","</f>
+        <v>"npc_dota_hero_abaddon",</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="str">
+        <f>""""&amp;__Sheet1!B3&amp;""","</f>
+        <v>"npc_dota_hero_abyssal_underlord",</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="str">
+        <f>""""&amp;__Sheet1!B4&amp;""","</f>
+        <v>"npc_dota_hero_alchemist",</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="str">
+        <f>""""&amp;__Sheet1!B5&amp;""","</f>
+        <v>"npc_dota_hero_ancient_apparition",</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="str">
+        <f>""""&amp;__Sheet1!B6&amp;""","</f>
+        <v>"npc_dota_hero_antimage",</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="str">
+        <f>""""&amp;__Sheet1!B7&amp;""","</f>
+        <v>"npc_dota_hero_arc_warden",</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="str">
+        <f>""""&amp;__Sheet1!B8&amp;""","</f>
+        <v>"npc_dota_hero_axe",</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="str">
+        <f>""""&amp;__Sheet1!B9&amp;""","</f>
+        <v>"npc_dota_hero_bane",</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="str">
+        <f>""""&amp;__Sheet1!B10&amp;""","</f>
+        <v>"npc_dota_hero_base",</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="str">
+        <f>""""&amp;__Sheet1!B11&amp;""","</f>
+        <v>"npc_dota_hero_batrider",</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="str">
+        <f>""""&amp;__Sheet1!B12&amp;""","</f>
+        <v>"npc_dota_hero_beastmaster",</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="str">
+        <f>""""&amp;__Sheet1!B13&amp;""","</f>
+        <v>"npc_dota_hero_bloodseeker",</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="str">
+        <f>""""&amp;__Sheet1!B14&amp;""","</f>
+        <v>"npc_dota_hero_bounty_hunter",</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="str">
+        <f>""""&amp;__Sheet1!B15&amp;""","</f>
+        <v>"npc_dota_hero_brewmaster",</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="str">
+        <f>""""&amp;__Sheet1!B16&amp;""","</f>
+        <v>"npc_dota_hero_bristleback",</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="str">
+        <f>""""&amp;__Sheet1!B17&amp;""","</f>
+        <v>"npc_dota_hero_broodmother",</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="str">
+        <f>""""&amp;__Sheet1!B18&amp;""","</f>
+        <v>"npc_dota_hero_centaur",</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="str">
+        <f>""""&amp;__Sheet1!B19&amp;""","</f>
+        <v>"npc_dota_hero_chaos_knight",</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="str">
+        <f>""""&amp;__Sheet1!B20&amp;""","</f>
+        <v>"npc_dota_hero_chen",</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="str">
+        <f>""""&amp;__Sheet1!B21&amp;""","</f>
+        <v>"npc_dota_hero_clinkz",</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="str">
+        <f>""""&amp;__Sheet1!B22&amp;""","</f>
+        <v>"npc_dota_hero_crystal_maiden",</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="str">
+        <f>""""&amp;__Sheet1!B23&amp;""","</f>
+        <v>"npc_dota_hero_dark_seer",</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="str">
+        <f>""""&amp;__Sheet1!B24&amp;""","</f>
+        <v>"npc_dota_hero_dark_willow",</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="str">
+        <f>""""&amp;__Sheet1!B25&amp;""","</f>
+        <v>"npc_dota_hero_dazzle",</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="str">
+        <f>""""&amp;__Sheet1!B26&amp;""","</f>
+        <v>"npc_dota_hero_death_prophet",</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="str">
+        <f>""""&amp;__Sheet1!B27&amp;""","</f>
+        <v>"npc_dota_hero_disruptor",</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="str">
+        <f>""""&amp;__Sheet1!B28&amp;""","</f>
+        <v>"npc_dota_hero_doom_bringer",</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="str">
+        <f>""""&amp;__Sheet1!B29&amp;""","</f>
+        <v>"npc_dota_hero_dragon_knight",</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="str">
+        <f>""""&amp;__Sheet1!B30&amp;""","</f>
+        <v>"npc_dota_hero_drow_ranger",</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="str">
+        <f>""""&amp;__Sheet1!B31&amp;""","</f>
+        <v>"npc_dota_hero_earth_spirit",</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="str">
+        <f>""""&amp;__Sheet1!B32&amp;""","</f>
+        <v>"npc_dota_hero_earthshaker",</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="str">
+        <f>""""&amp;__Sheet1!B33&amp;""","</f>
+        <v>"npc_dota_hero_elder_titan",</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="str">
+        <f>""""&amp;__Sheet1!B34&amp;""","</f>
+        <v>"npc_dota_hero_ember_spirit",</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="str">
+        <f>""""&amp;__Sheet1!B35&amp;""","</f>
+        <v>"npc_dota_hero_enchantress",</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="str">
+        <f>""""&amp;__Sheet1!B36&amp;""","</f>
+        <v>"npc_dota_hero_enigma",</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="str">
+        <f>""""&amp;__Sheet1!B37&amp;""","</f>
+        <v>"npc_dota_hero_faceless_void",</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="str">
+        <f>""""&amp;__Sheet1!B38&amp;""","</f>
+        <v>"npc_dota_hero_furion",</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="str">
+        <f>""""&amp;__Sheet1!B39&amp;""","</f>
+        <v>"npc_dota_hero_grimstroke",</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="str">
+        <f>""""&amp;__Sheet1!B40&amp;""","</f>
+        <v>"npc_dota_hero_gyrocopter",</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="str">
+        <f>""""&amp;__Sheet1!B41&amp;""","</f>
+        <v>"npc_dota_hero_huskar",</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="str">
+        <f>""""&amp;__Sheet1!B42&amp;""","</f>
+        <v>"npc_dota_hero_invoker",</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="str">
+        <f>""""&amp;__Sheet1!B43&amp;""","</f>
+        <v>"npc_dota_hero_jakiro",</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="str">
+        <f>""""&amp;__Sheet1!B44&amp;""","</f>
+        <v>"npc_dota_hero_juggernaut",</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="str">
+        <f>""""&amp;__Sheet1!B45&amp;""","</f>
+        <v>"npc_dota_hero_keeper_of_the_light",</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="str">
+        <f>""""&amp;__Sheet1!B46&amp;""","</f>
+        <v>"npc_dota_hero_kunkka",</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="str">
+        <f>""""&amp;__Sheet1!B47&amp;""","</f>
+        <v>"npc_dota_hero_legion_commander",</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="str">
+        <f>""""&amp;__Sheet1!B48&amp;""","</f>
+        <v>"npc_dota_hero_leshrac",</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="str">
+        <f>""""&amp;__Sheet1!B49&amp;""","</f>
+        <v>"npc_dota_hero_lich",</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="str">
+        <f>""""&amp;__Sheet1!B50&amp;""","</f>
+        <v>"npc_dota_hero_life_stealer",</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="str">
+        <f>""""&amp;__Sheet1!B51&amp;""","</f>
+        <v>"npc_dota_hero_lina",</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="str">
+        <f>""""&amp;__Sheet1!B52&amp;""","</f>
+        <v>"npc_dota_hero_lion",</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="str">
+        <f>""""&amp;__Sheet1!B53&amp;""","</f>
+        <v>"npc_dota_hero_lone_druid",</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="str">
+        <f>""""&amp;__Sheet1!B54&amp;""","</f>
+        <v>"npc_dota_hero_luna",</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="str">
+        <f>""""&amp;__Sheet1!B55&amp;""","</f>
+        <v>"npc_dota_hero_lycan",</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="str">
+        <f>""""&amp;__Sheet1!B56&amp;""","</f>
+        <v>"npc_dota_hero_magnataur",</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="str">
+        <f>""""&amp;__Sheet1!B57&amp;""","</f>
+        <v>"npc_dota_hero_mars",</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="str">
+        <f>""""&amp;__Sheet1!B58&amp;""","</f>
+        <v>"npc_dota_hero_medusa",</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="str">
+        <f>""""&amp;__Sheet1!B59&amp;""","</f>
+        <v>"npc_dota_hero_meepo",</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="str">
+        <f>""""&amp;__Sheet1!B60&amp;""","</f>
+        <v>"npc_dota_hero_mirana",</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="str">
+        <f>""""&amp;__Sheet1!B61&amp;""","</f>
+        <v>"npc_dota_hero_monkey_king",</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="str">
+        <f>""""&amp;__Sheet1!B62&amp;""","</f>
+        <v>"npc_dota_hero_morphling",</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="str">
+        <f>""""&amp;__Sheet1!B63&amp;""","</f>
+        <v>"npc_dota_hero_naga_siren",</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="str">
+        <f>""""&amp;__Sheet1!B64&amp;""","</f>
+        <v>"npc_dota_hero_necrolyte",</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="str">
+        <f>""""&amp;__Sheet1!B65&amp;""","</f>
+        <v>"npc_dota_hero_nevermore",</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="str">
+        <f>""""&amp;__Sheet1!B66&amp;""","</f>
+        <v>"npc_dota_hero_night_stalker",</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="str">
+        <f>""""&amp;__Sheet1!B67&amp;""","</f>
+        <v>"npc_dota_hero_nyx_assassin",</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="str">
+        <f>""""&amp;__Sheet1!B68&amp;""","</f>
+        <v>"npc_dota_hero_obsidian_destroyer",</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="str">
+        <f>""""&amp;__Sheet1!B69&amp;""","</f>
+        <v>"npc_dota_hero_ogre_magi",</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="str">
+        <f>""""&amp;__Sheet1!B70&amp;""","</f>
+        <v>"npc_dota_hero_omniknight",</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="str">
+        <f>""""&amp;__Sheet1!B71&amp;""","</f>
+        <v>"npc_dota_hero_oracle",</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="str">
+        <f>""""&amp;__Sheet1!B72&amp;""","</f>
+        <v>"npc_dota_hero_pangolier",</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="str">
+        <f>""""&amp;__Sheet1!B73&amp;""","</f>
+        <v>"npc_dota_hero_phantom_assassin",</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="str">
+        <f>""""&amp;__Sheet1!B74&amp;""","</f>
+        <v>"npc_dota_hero_phantom_lancer",</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="str">
+        <f>""""&amp;__Sheet1!B75&amp;""","</f>
+        <v>"npc_dota_hero_phoenix",</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="str">
+        <f>""""&amp;__Sheet1!B76&amp;""","</f>
+        <v>"npc_dota_hero_puck",</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="str">
+        <f>""""&amp;__Sheet1!B77&amp;""","</f>
+        <v>"npc_dota_hero_pudge",</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="str">
+        <f>""""&amp;__Sheet1!B78&amp;""","</f>
+        <v>"npc_dota_hero_pugna",</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="str">
+        <f>""""&amp;__Sheet1!B79&amp;""","</f>
+        <v>"npc_dota_hero_queenofpain",</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="str">
+        <f>""""&amp;__Sheet1!B80&amp;""","</f>
+        <v>"npc_dota_hero_rattletrap",</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="str">
+        <f>""""&amp;__Sheet1!B81&amp;""","</f>
+        <v>"npc_dota_hero_razor",</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="str">
+        <f>""""&amp;__Sheet1!B82&amp;""","</f>
+        <v>"npc_dota_hero_riki",</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="str">
+        <f>""""&amp;__Sheet1!B83&amp;""","</f>
+        <v>"npc_dota_hero_rubick",</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="str">
+        <f>""""&amp;__Sheet1!B84&amp;""","</f>
+        <v>"npc_dota_hero_sand_king",</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="str">
+        <f>""""&amp;__Sheet1!B85&amp;""","</f>
+        <v>"npc_dota_hero_shadow_demon",</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="str">
+        <f>""""&amp;__Sheet1!B86&amp;""","</f>
+        <v>"npc_dota_hero_shadow_shaman",</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="str">
+        <f>""""&amp;__Sheet1!B87&amp;""","</f>
+        <v>"npc_dota_hero_shredder",</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="str">
+        <f>""""&amp;__Sheet1!B88&amp;""","</f>
+        <v>"npc_dota_hero_silencer",</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="str">
+        <f>""""&amp;__Sheet1!B89&amp;""","</f>
+        <v>"npc_dota_hero_skeleton_king",</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="str">
+        <f>""""&amp;__Sheet1!B90&amp;""","</f>
+        <v>"npc_dota_hero_skywrath_mage",</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="str">
+        <f>""""&amp;__Sheet1!B91&amp;""","</f>
+        <v>"npc_dota_hero_slardar",</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="str">
+        <f>""""&amp;__Sheet1!B92&amp;""","</f>
+        <v>"npc_dota_hero_slark",</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="str">
+        <f>""""&amp;__Sheet1!B93&amp;""","</f>
+        <v>"npc_dota_hero_snapfire",</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="str">
+        <f>""""&amp;__Sheet1!B94&amp;""","</f>
+        <v>"npc_dota_hero_sniper",</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="str">
+        <f>""""&amp;__Sheet1!B95&amp;""","</f>
+        <v>"npc_dota_hero_spectre",</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="str">
+        <f>""""&amp;__Sheet1!B96&amp;""","</f>
+        <v>"npc_dota_hero_spirit_breaker",</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="str">
+        <f>""""&amp;__Sheet1!B97&amp;""","</f>
+        <v>"npc_dota_hero_storm_spirit",</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="str">
+        <f>""""&amp;__Sheet1!B98&amp;""","</f>
+        <v>"npc_dota_hero_sven",</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="str">
+        <f>""""&amp;__Sheet1!B99&amp;""","</f>
+        <v>"npc_dota_hero_target_dummy",</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="str">
+        <f>""""&amp;__Sheet1!B100&amp;""","</f>
+        <v>"npc_dota_hero_techies",</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="str">
+        <f>""""&amp;__Sheet1!B101&amp;""","</f>
+        <v>"npc_dota_hero_templar_assassin",</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="str">
+        <f>""""&amp;__Sheet1!B102&amp;""","</f>
+        <v>"npc_dota_hero_terrorblade",</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="str">
+        <f>""""&amp;__Sheet1!B103&amp;""","</f>
+        <v>"npc_dota_hero_tidehunter",</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="str">
+        <f>""""&amp;__Sheet1!B104&amp;""","</f>
+        <v>"npc_dota_hero_tinker",</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="str">
+        <f>""""&amp;__Sheet1!B105&amp;""","</f>
+        <v>"npc_dota_hero_tiny",</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="str">
+        <f>""""&amp;__Sheet1!B106&amp;""","</f>
+        <v>"npc_dota_hero_treant",</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="str">
+        <f>""""&amp;__Sheet1!B107&amp;""","</f>
+        <v>"npc_dota_hero_troll_warlord",</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="str">
+        <f>""""&amp;__Sheet1!B108&amp;""","</f>
+        <v>"npc_dota_hero_tusk",</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="str">
+        <f>""""&amp;__Sheet1!B109&amp;""","</f>
+        <v>"npc_dota_hero_undying",</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="str">
+        <f>""""&amp;__Sheet1!B110&amp;""","</f>
+        <v>"npc_dota_hero_ursa",</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="str">
+        <f>""""&amp;__Sheet1!B111&amp;""","</f>
+        <v>"npc_dota_hero_vengefulspirit",</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="str">
+        <f>""""&amp;__Sheet1!B112&amp;""","</f>
+        <v>"npc_dota_hero_venomancer",</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="str">
+        <f>""""&amp;__Sheet1!B113&amp;""","</f>
+        <v>"npc_dota_hero_viper",</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="str">
+        <f>""""&amp;__Sheet1!B114&amp;""","</f>
+        <v>"npc_dota_hero_visage",</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="str">
+        <f>""""&amp;__Sheet1!B115&amp;""","</f>
+        <v>"npc_dota_hero_void_spirit",</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="str">
+        <f>""""&amp;__Sheet1!B116&amp;""","</f>
+        <v>"npc_dota_hero_warlock",</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="str">
+        <f>""""&amp;__Sheet1!B117&amp;""","</f>
+        <v>"npc_dota_hero_weaver",</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="str">
+        <f>""""&amp;__Sheet1!B118&amp;""","</f>
+        <v>"npc_dota_hero_windrunner",</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="str">
+        <f>""""&amp;__Sheet1!B119&amp;""","</f>
+        <v>"npc_dota_hero_winter_wyvern",</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="str">
+        <f>""""&amp;__Sheet1!B120&amp;""","</f>
+        <v>"npc_dota_hero_wisp",</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="str">
+        <f>""""&amp;__Sheet1!B121&amp;""","</f>
+        <v>"npc_dota_hero_witch_doctor",</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="str">
+        <f>""""&amp;__Sheet1!B122&amp;""","</f>
+        <v>"npc_dota_hero_zuus",</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="str">
+        <f>""""&amp;__Sheet1!B123&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="str">
+        <f>""""&amp;__Sheet1!B124&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="str">
+        <f>""""&amp;__Sheet1!B125&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="str">
+        <f>""""&amp;__Sheet1!B126&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="str">
+        <f>""""&amp;__Sheet1!B127&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="str">
+        <f>""""&amp;__Sheet1!B128&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="str">
+        <f>""""&amp;__Sheet1!B129&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="str">
+        <f>""""&amp;__Sheet1!B130&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="str">
+        <f>""""&amp;__Sheet1!B131&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="str">
+        <f>""""&amp;__Sheet1!B132&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="str">
+        <f>""""&amp;__Sheet1!B133&amp;""","</f>
+        <v>"",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -5908,7 +5908,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B04BB0C7-F67C-4511-9F41-72D93CECC1C7}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{004158AA-B395-4731-98F9-E4F606463863}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -6192,9 +6192,9 @@
   <dimension ref="A1:BF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R2" sqref="R2"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1525">
   <si>
     <t>主键</t>
   </si>
@@ -332,10 +332,10 @@
     <t>DOTA_HULL_SIZE_SMALL</t>
   </si>
   <si>
-    <t>npc_dota_hero_abaddon</t>
-  </si>
-  <si>
-    <t>亚巴顿</t>
+    <t>npc_dota_hero_lina</t>
+  </si>
+  <si>
+    <t>法爷</t>
   </si>
   <si>
     <t>{
@@ -345,11 +345,6 @@
   </si>
   <si>
     <t>{
-"Base" "150"
-}</t>
-  </si>
-  <si>
-    <t>{
 "Base" "1.7"
 }</t>
   </si>
@@ -359,20 +354,15 @@
 }</t>
   </si>
   <si>
+    <t>npc_dota_hero_axe</t>
+  </si>
+  <si>
+    <t>斧王</t>
+  </si>
+  <si>
     <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
   </si>
   <si>
-    <t>npc_dota_hero_zuus</t>
-  </si>
-  <si>
-    <t>宙斯</t>
-  </si>
-  <si>
-    <t>{
-"Base" "400"
-}</t>
-  </si>
-  <si>
     <t>英雄名</t>
   </si>
   <si>
@@ -391,6 +381,12 @@
     <t>弹道特效</t>
   </si>
   <si>
+    <t>亚巴顿</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_abaddon</t>
+  </si>
+  <si>
     <t>models/heroes/abaddon/abaddon.vmdl</t>
   </si>
   <si>
@@ -601,9 +597,6 @@
     <t>斧头</t>
   </si>
   <si>
-    <t>npc_dota_hero_axe</t>
-  </si>
-  <si>
     <t>models/heroes/axe/axe.vmdl</t>
   </si>
   <si>
@@ -2093,9 +2086,6 @@
   </si>
   <si>
     <t>丽娜</t>
-  </si>
-  <si>
-    <t>npc_dota_hero_lina</t>
   </si>
   <si>
     <t>models/heroes/lina/lina.vmdl</t>
@@ -4629,6 +4619,9 @@
   </si>
   <si>
     <t>祖斯</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_zuus</t>
   </si>
   <si>
     <t>models/heroes/zeus/zeus.vmdl</t>
@@ -5908,7 +5901,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{004158AA-B395-4731-98F9-E4F606463863}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2AAE95D5-0E26-452C-9A23-15B6AC846E33}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -6189,12 +6182,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BF36"/>
+  <dimension ref="A1:BF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6712,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="25">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="F4" s="25">
         <v>1</v>
@@ -6737,16 +6730,16 @@
         <v>94</v>
       </c>
       <c r="N4" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>95</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>96</v>
       </c>
       <c r="P4" s="25" t="s">
         <v>81</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R4" s="36" t="s">
         <v>87</v>
@@ -6821,8 +6814,8 @@
       <c r="AX4" s="24">
         <v>300</v>
       </c>
-      <c r="AY4" s="25" t="s">
-        <v>98</v>
+      <c r="AY4" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="AZ4" s="25" t="s">
         <v>91</v>
@@ -6848,19 +6841,19 @@
     </row>
     <row r="5" s="9" customFormat="1" ht="66.75" spans="1:58">
       <c r="A5" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="27">
         <v>1</v>
       </c>
       <c r="E5" s="27">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F5" s="27">
         <v>2</v>
@@ -6885,16 +6878,16 @@
         <v>94</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>81</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R5" s="36" t="s">
         <v>87</v>
@@ -6970,7 +6963,7 @@
         <v>300</v>
       </c>
       <c r="AY5" s="27" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AZ5" s="27" t="s">
         <v>91</v>
@@ -7042,52 +7035,16 @@
       <c r="T9"/>
       <c r="AZ9" s="47"/>
     </row>
-    <row r="10" spans="12:52">
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+    <row r="10" spans="52:52">
       <c r="AZ10" s="47"/>
     </row>
-    <row r="11" spans="12:52">
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+    <row r="11" spans="52:52">
       <c r="AZ11" s="47"/>
     </row>
-    <row r="12" spans="12:52">
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
+    <row r="12" spans="52:52">
       <c r="AZ12" s="47"/>
     </row>
-    <row r="13" spans="12:52">
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
+    <row r="13" spans="52:52">
       <c r="AZ13" s="47"/>
     </row>
     <row r="14" spans="52:52">
@@ -7146,18 +7103,6 @@
     </row>
     <row r="32" spans="52:52">
       <c r="AZ32" s="47"/>
-    </row>
-    <row r="33" spans="52:52">
-      <c r="AZ33" s="47"/>
-    </row>
-    <row r="34" spans="52:52">
-      <c r="AZ34" s="47"/>
-    </row>
-    <row r="35" spans="52:52">
-      <c r="AZ35" s="47"/>
-    </row>
-    <row r="36" spans="52:52">
-      <c r="AZ36" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:BB5">
@@ -7191,10 +7136,10 @@
   <sheetPr/>
   <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W30" sqref="W30"/>
+      <selection pane="topRight" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7221,29 +7166,29 @@
     <row r="1" spans="1:25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -7254,17 +7199,17 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>108</v>
@@ -7318,7 +7263,7 @@
         <v>118</v>
       </c>
       <c r="T2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U2">
         <v>0.56000000238419</v>
@@ -7395,7 +7340,7 @@
         <v>118</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U3" s="2">
         <v>0.44999998807907</v>
@@ -7472,7 +7417,7 @@
         <v>118</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U4" s="2">
         <v>0.34999999403954</v>
@@ -7626,7 +7571,7 @@
         <v>118</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U6" s="2">
         <v>0.30000001192093</v>
@@ -7726,43 +7671,43 @@
         <v>177</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>118</v>
@@ -7780,7 +7725,7 @@
         <v>118</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U8" s="2">
         <v>0.5</v>
@@ -7800,46 +7745,46 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D9" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>118</v>
@@ -7866,7 +7811,7 @@
         <v>400</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9" s="2">
         <v>900</v>
@@ -7877,13 +7822,13 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>118</v>
@@ -7919,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>90</v>
@@ -7931,7 +7876,7 @@
         <v>600</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X10" s="2">
         <v>900</v>
@@ -7942,46 +7887,46 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="D11" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>118</v>
@@ -8008,7 +7953,7 @@
         <v>375</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X11" s="2">
         <v>900</v>
@@ -8019,46 +7964,46 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="D12" s="5">
         <v>0.76999998092651</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>118</v>
@@ -8076,7 +8021,7 @@
         <v>118</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U12" s="2">
         <v>0.30000001192093</v>
@@ -8096,46 +8041,46 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="D13" s="5">
         <v>0.87999999523163</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>118</v>
@@ -8153,7 +8098,7 @@
         <v>118</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U13" s="2">
         <v>0.43000000715256</v>
@@ -8173,46 +8118,46 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="D14" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>118</v>
@@ -8230,7 +8175,7 @@
         <v>118</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U14" s="2">
         <v>0.58999997377396</v>
@@ -8250,46 +8195,46 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="D15" s="5">
         <v>0.79000002145767</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>118</v>
@@ -8307,7 +8252,7 @@
         <v>118</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U15" s="2">
         <v>0.34999999403954</v>
@@ -8327,46 +8272,46 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="D16" s="5">
         <v>0.80000001192093</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>118</v>
@@ -8384,7 +8329,7 @@
         <v>118</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U16" s="2">
         <v>0.30000001192093</v>
@@ -8404,46 +8349,46 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="D17" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>118</v>
@@ -8461,7 +8406,7 @@
         <v>118</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U17" s="2">
         <v>0.40000000596046</v>
@@ -8481,46 +8426,46 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D18" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>118</v>
@@ -8538,7 +8483,7 @@
         <v>118</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U18" s="2">
         <v>0.30000001192093</v>
@@ -8558,46 +8503,46 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D19" s="5">
         <v>0.79000002145767</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="O19" s="2">
         <v>260</v>
@@ -8615,7 +8560,7 @@
         <v>118</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U19" s="2">
         <v>0.5</v>
@@ -8635,46 +8580,46 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="D20" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>118</v>
@@ -8701,7 +8646,7 @@
         <v>650</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X20" s="2">
         <v>1100</v>
@@ -8712,46 +8657,46 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D21" s="5">
         <v>0.64999997615814</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="O21" s="2">
         <v>170</v>
@@ -8778,7 +8723,7 @@
         <v>625</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X21" s="2">
         <v>900</v>
@@ -8789,46 +8734,46 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D22" s="5">
         <v>0.81000000238419</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>118</v>
@@ -8855,7 +8800,7 @@
         <v>600</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X22" s="2">
         <v>900</v>
@@ -8866,46 +8811,46 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="D23" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>118</v>
@@ -8923,7 +8868,7 @@
         <v>118</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U23" s="2">
         <v>0.58999997377396</v>
@@ -8943,46 +8888,46 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="O24" s="2">
         <v>230</v>
@@ -9009,7 +8954,7 @@
         <v>475</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X24" s="2">
         <v>1200</v>
@@ -9020,46 +8965,46 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="D25" s="5">
         <v>0.79000002145767</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>118</v>
@@ -9086,7 +9031,7 @@
         <v>550</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="X25" s="2">
         <v>1200</v>
@@ -9097,46 +9042,46 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="D26" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>118</v>
@@ -9163,7 +9108,7 @@
         <v>600</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X26" s="2">
         <v>1000</v>
@@ -9174,46 +9119,46 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="D27" s="5">
         <v>0.79000002145767</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>118</v>
@@ -9240,7 +9185,7 @@
         <v>625</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="X27" s="2">
         <v>1200</v>
@@ -9251,46 +9196,46 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D28" s="5">
         <v>0.86000001430511</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>118</v>
@@ -9308,7 +9253,7 @@
         <v>118</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U28" s="2">
         <v>0.5</v>
@@ -9328,46 +9273,46 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="D29" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>118</v>
@@ -9385,7 +9330,7 @@
         <v>118</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U29" s="2">
         <v>0.5</v>
@@ -9411,40 +9356,40 @@
         <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D30" s="5">
         <v>0.97000002861023</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>118</v>
@@ -9471,7 +9416,7 @@
         <v>625</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="X30" s="2">
         <v>1250</v>
@@ -9482,46 +9427,46 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="D31" s="5">
         <v>0.94999998807907</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>118</v>
@@ -9539,7 +9484,7 @@
         <v>118</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U31" s="2">
         <v>0.34999999403954</v>
@@ -9559,46 +9504,46 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="D32" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>118</v>
@@ -9616,7 +9561,7 @@
         <v>118</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U32" s="2">
         <v>0.46700000762939</v>
@@ -9636,46 +9581,46 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="D33" s="5">
         <v>0.75</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>118</v>
@@ -9693,7 +9638,7 @@
         <v>118</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U33" s="2">
         <v>0.34999999403954</v>
@@ -9713,46 +9658,46 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="D34" s="5">
         <v>1.2000000476837</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>118</v>
@@ -9770,7 +9715,7 @@
         <v>118</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U34" s="2">
         <v>0.40000000596046</v>
@@ -9790,46 +9735,46 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D35" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>118</v>
@@ -9856,7 +9801,7 @@
         <v>575</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X35" s="2">
         <v>900</v>
@@ -9867,46 +9812,46 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="D36" s="5">
         <v>0.81000000238419</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="O36" s="2">
         <v>240</v>
@@ -9933,7 +9878,7 @@
         <v>500</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="X36" s="2">
         <v>900</v>
@@ -9944,46 +9889,46 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="D37" s="5">
         <v>0.89999997615814</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>118</v>
@@ -10001,7 +9946,7 @@
         <v>118</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U37" s="2">
         <v>0.5</v>
@@ -10021,46 +9966,46 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="D38" s="5">
         <v>0.79000002145767</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>118</v>
@@ -10087,7 +10032,7 @@
         <v>600</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="X38" s="2">
         <v>1125</v>
@@ -10098,46 +10043,46 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="D39" s="5">
         <v>0.75999999046326</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="O39" s="2">
         <v>250</v>
@@ -10164,7 +10109,7 @@
         <v>550</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="X39" s="2">
         <v>900</v>
@@ -10175,46 +10120,46 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="D40" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>118</v>
@@ -10241,7 +10186,7 @@
         <v>365</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="X40" s="2">
         <v>3000</v>
@@ -10252,46 +10197,46 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="D41" s="5">
         <v>0.79000002145767</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" t="s">
         <v>562</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>563</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>564</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>116</v>
+      </c>
+      <c r="M41" t="s">
+        <v>116</v>
+      </c>
+      <c r="N41" t="s">
         <v>565</v>
-      </c>
-      <c r="L41" t="s">
-        <v>116</v>
-      </c>
-      <c r="M41" t="s">
-        <v>116</v>
-      </c>
-      <c r="N41" t="s">
-        <v>566</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>118</v>
@@ -10318,7 +10263,7 @@
         <v>400</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="X41" s="2">
         <v>1400</v>
@@ -10329,46 +10274,46 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="D42" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>118</v>
@@ -10395,7 +10340,7 @@
         <v>600</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="X42" s="2">
         <v>900</v>
@@ -10406,46 +10351,46 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="D43" s="5">
         <v>0.97000002861023</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" t="s">
         <v>588</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>589</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>590</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" t="s">
+        <v>116</v>
+      </c>
+      <c r="N43" t="s">
         <v>591</v>
-      </c>
-      <c r="L43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M43" t="s">
-        <v>116</v>
-      </c>
-      <c r="N43" t="s">
-        <v>592</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>118</v>
@@ -10472,7 +10417,7 @@
         <v>400</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="X43" s="2">
         <v>1100</v>
@@ -10483,46 +10428,46 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="D44" s="5">
         <v>0.85000002384186</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>118</v>
@@ -10540,7 +10485,7 @@
         <v>118</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U44" s="2">
         <v>0.33000001311302</v>
@@ -10560,46 +10505,46 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="D45" s="5">
         <v>0.80000001192093</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>118</v>
@@ -10626,7 +10571,7 @@
         <v>600</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="X45" s="2">
         <v>900</v>
@@ -10637,46 +10582,46 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="D46" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>118</v>
@@ -10694,7 +10639,7 @@
         <v>118</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U46" s="2">
         <v>0.40000000596046</v>
@@ -10714,46 +10659,46 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="D47" s="5">
         <v>1.0249999761581</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>118</v>
@@ -10771,7 +10716,7 @@
         <v>118</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U47" s="2">
         <v>0.46000000834465</v>
@@ -10791,46 +10736,46 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="D48" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>118</v>
@@ -10857,7 +10802,7 @@
         <v>600</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X48" s="2">
         <v>900</v>
@@ -10868,46 +10813,46 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="D49" s="5">
         <v>0.79000002145767</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="O49" s="2">
         <v>255</v>
@@ -10934,7 +10879,7 @@
         <v>550</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="X49" s="2">
         <v>900</v>
@@ -10945,46 +10890,46 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="D50" s="5">
         <v>0.81000000238419</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>118</v>
@@ -11002,7 +10947,7 @@
         <v>118</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U50" s="2">
         <v>0.38999998569489</v>
@@ -11022,46 +10967,46 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="D51" s="5">
         <v>0.81000000238419</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="L51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N51" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>118</v>
@@ -11088,7 +11033,7 @@
         <v>670</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="X51" s="2">
         <v>1000</v>
@@ -11099,46 +11044,46 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="D52" s="5">
         <v>0.69999998807907</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="L52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N52" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>118</v>
@@ -11165,7 +11110,7 @@
         <v>600</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="X52" s="2">
         <v>900</v>
@@ -11176,46 +11121,46 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="D53" s="5">
         <v>0.79000002145767</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="L53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>118</v>
@@ -11242,7 +11187,7 @@
         <v>550</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="X53" s="2">
         <v>900</v>
@@ -11253,46 +11198,46 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="D54" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="L54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>118</v>
@@ -11319,7 +11264,7 @@
         <v>330</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="X54" s="2">
         <v>900</v>
@@ -11330,46 +11275,46 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="D55" s="5">
         <v>0.85000002384186</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="M55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>118</v>
@@ -11387,7 +11332,7 @@
         <v>118</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U55" s="2">
         <v>0.55000001192093</v>
@@ -11407,46 +11352,46 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="D56" s="5">
         <v>0.9200000166893</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="L56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>118</v>
@@ -11464,7 +11409,7 @@
         <v>118</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U56" s="2">
         <v>0.5</v>
@@ -11484,46 +11429,46 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="D57" s="5">
         <v>0.89999997615814</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="L57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N57" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>118</v>
@@ -11541,7 +11486,7 @@
         <v>118</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U57" s="2">
         <v>0.40000000596046</v>
@@ -11561,46 +11506,46 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="D58" s="5">
         <v>0.85000002384186</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="L58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N58" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>118</v>
@@ -11627,7 +11572,7 @@
         <v>600</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="X58" s="2">
         <v>1200</v>
@@ -11638,46 +11583,46 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="D59" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="L59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N59" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>118</v>
@@ -11695,7 +11640,7 @@
         <v>118</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U59" s="2">
         <v>0.37999999523163</v>
@@ -11715,46 +11660,46 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>781</v>
       </c>
       <c r="D60" s="5">
         <v>0.79000002145767</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="L60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N60" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>118</v>
@@ -11781,7 +11726,7 @@
         <v>630</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="X60" s="2">
         <v>900</v>
@@ -11792,46 +11737,46 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>793</v>
       </c>
       <c r="D61" s="5">
         <v>0.81000000238419</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="N61" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>118</v>
@@ -11849,7 +11794,7 @@
         <v>118</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U61" s="2">
         <v>0.44999998807907</v>
@@ -11869,46 +11814,46 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="D62" s="5">
         <v>0.87999999523163</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>118</v>
@@ -11935,7 +11880,7 @@
         <v>350</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="X62" s="2">
         <v>1300</v>
@@ -11946,46 +11891,46 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="D63" s="5">
         <v>0.76999998092651</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="L63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N63" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>118</v>
@@ -12003,7 +11948,7 @@
         <v>118</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U63" s="2">
         <v>0.5</v>
@@ -12023,46 +11968,46 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="D64" s="5">
         <v>0.79000002145767</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="L64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N64" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>118</v>
@@ -12089,7 +12034,7 @@
         <v>500</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="X64" s="2">
         <v>900</v>
@@ -12100,46 +12045,46 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="D65" s="5">
         <v>0.98000001907349</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>118</v>
@@ -12166,7 +12111,7 @@
         <v>500</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="X65" s="2">
         <v>1200</v>
@@ -12177,46 +12122,46 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="D66" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="L66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N66" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>865</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>118</v>
@@ -12234,7 +12179,7 @@
         <v>118</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U66" s="2">
         <v>0.55000001192093</v>
@@ -12254,46 +12199,46 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="D67" s="5">
         <v>0.98000001907349</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="M67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N67" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>118</v>
@@ -12311,7 +12256,7 @@
         <v>118</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U67" s="2">
         <v>0.46000000834465</v>
@@ -12331,46 +12276,46 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="D68" s="5">
         <v>0.69999998807907</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="L68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N68" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>888</v>
       </c>
       <c r="O68" s="2">
         <v>300</v>
@@ -12397,7 +12342,7 @@
         <v>450</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="X68" s="2">
         <v>900</v>
@@ -12408,46 +12353,46 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="D69" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="M69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N69" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>901</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>118</v>
@@ -12465,7 +12410,7 @@
         <v>118</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U69" s="2">
         <v>0.30000001192093</v>
@@ -12485,46 +12430,46 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="D70" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="L70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N70" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>118</v>
@@ -12542,7 +12487,7 @@
         <v>118</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U70" s="2">
         <v>0.43299999833107</v>
@@ -12562,46 +12507,46 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="D71" s="5">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="L71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N71" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>923</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>118</v>
@@ -12628,7 +12573,7 @@
         <v>620</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="X71" s="2">
         <v>900</v>
@@ -12639,46 +12584,46 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="D72" s="5">
         <v>0.89999997615814</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="L72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>935</v>
       </c>
       <c r="O72" s="2">
         <v>180</v>
@@ -12696,7 +12641,7 @@
         <v>118</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U72" s="2">
         <v>0.33000001311302</v>
@@ -12716,46 +12661,46 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="D73" s="5">
         <v>0.86000001430511</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="L73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>946</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>118</v>
@@ -12773,7 +12718,7 @@
         <v>118</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U73" s="2">
         <v>0.30000001192093</v>
@@ -12793,46 +12738,46 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="D74" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="L74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>118</v>
@@ -12850,7 +12795,7 @@
         <v>118</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U74" s="2">
         <v>0.5</v>
@@ -12870,46 +12815,46 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="D75" s="5">
         <v>0.94999998807907</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="M75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>969</v>
       </c>
       <c r="O75" s="2">
         <v>250</v>
@@ -12936,7 +12881,7 @@
         <v>500</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="X75" s="2">
         <v>1100</v>
@@ -12947,46 +12892,46 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>973</v>
       </c>
       <c r="D76" s="5">
         <v>0.86000001430511</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="M76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N76" s="2" t="s">
         <v>980</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>982</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>118</v>
@@ -13013,7 +12958,7 @@
         <v>550</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="X76" s="2">
         <v>900</v>
@@ -13024,46 +12969,46 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="D77" s="5">
         <v>0.98000001907349</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="I77" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="J77" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="K77" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="L77" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="M77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>993</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>118</v>
@@ -13081,7 +13026,7 @@
         <v>118</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U77" s="2">
         <v>0.5</v>
@@ -13101,46 +13046,46 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>996</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="D78" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="L78" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N78" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>1006</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>118</v>
@@ -13167,7 +13112,7 @@
         <v>630</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="X78" s="2">
         <v>900</v>
@@ -13178,46 +13123,46 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>1010</v>
       </c>
       <c r="D79" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="L79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N79" s="2" t="s">
         <v>1016</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>1018</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>118</v>
@@ -13244,7 +13189,7 @@
         <v>550</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="X79" s="2">
         <v>1500</v>
@@ -13255,46 +13200,46 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>1022</v>
       </c>
       <c r="D80" s="5">
         <v>0.87999999523163</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="M80" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>118</v>
@@ -13312,7 +13257,7 @@
         <v>118</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U80" s="2">
         <v>0.33000001311302</v>
@@ -13332,46 +13277,46 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>1032</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>1034</v>
       </c>
       <c r="D81" s="5">
         <v>0.86000001430511</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="L81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>1042</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>118</v>
@@ -13398,7 +13343,7 @@
         <v>475</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="X81" s="2">
         <v>2000</v>
@@ -13409,46 +13354,46 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>1044</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>1046</v>
       </c>
       <c r="D82" s="5">
         <v>0.87000000476837</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="L82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>1054</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>118</v>
@@ -13466,7 +13411,7 @@
         <v>118</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U82" s="2">
         <v>0.30000001192093</v>
@@ -13486,46 +13431,46 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>1057</v>
       </c>
       <c r="D83" s="5">
         <v>0.69999998807907</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="M83" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>1067</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>118</v>
@@ -13552,7 +13497,7 @@
         <v>550</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="X83" s="2">
         <v>1125</v>
@@ -13563,46 +13508,46 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>1069</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>1071</v>
       </c>
       <c r="D84" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="L84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>1077</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>1079</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>118</v>
@@ -13620,7 +13565,7 @@
         <v>118</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U84" s="2">
         <v>0.52999997138977</v>
@@ -13640,46 +13585,46 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>1080</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>1082</v>
       </c>
       <c r="D85" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E85" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="K85" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="M85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N85" s="2" t="s">
         <v>1089</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>1091</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>118</v>
@@ -13706,7 +13651,7 @@
         <v>500</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="X85" s="2">
         <v>900</v>
@@ -13717,46 +13662,46 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>1093</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="D86" s="5">
         <v>0.91000002622604</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="L86" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N86" s="2" t="s">
         <v>1101</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>1103</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>118</v>
@@ -13783,7 +13728,7 @@
         <v>400</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="X86" s="2">
         <v>900</v>
@@ -13794,46 +13739,46 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>1105</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>1107</v>
       </c>
       <c r="D87" s="5">
         <v>0.82499998807907</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="K87" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="M87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N87" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>1116</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>118</v>
@@ -13851,7 +13796,7 @@
         <v>118</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U87" s="2">
         <v>0.36000001430511</v>
@@ -13871,46 +13816,46 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>1117</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>1119</v>
       </c>
       <c r="D88" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="J88" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="K88" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="L88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N88" s="2" t="s">
         <v>1125</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>1127</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>118</v>
@@ -13937,7 +13882,7 @@
         <v>600</v>
       </c>
       <c r="W88" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="X88" s="2">
         <v>900</v>
@@ -13948,46 +13893,46 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>1129</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>1131</v>
       </c>
       <c r="D89" s="5">
         <v>0.93999999761581</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="L89" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N89" s="2" t="s">
         <v>1137</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>1139</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>118</v>
@@ -14005,7 +13950,7 @@
         <v>118</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U89" s="2">
         <v>0.56000000238419</v>
@@ -14025,46 +13970,46 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>1140</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="D90" s="5">
         <v>0.75</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="K90" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="L90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>1150</v>
       </c>
       <c r="O90" s="2">
         <v>300</v>
@@ -14091,7 +14036,7 @@
         <v>625</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="X90" s="2">
         <v>1000</v>
@@ -14102,46 +14047,46 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>1154</v>
       </c>
       <c r="D91" s="5">
         <v>0.87999999523163</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="K91" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="L91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>1162</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>118</v>
@@ -14159,7 +14104,7 @@
         <v>118</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U91" s="2">
         <v>0.36000001430511</v>
@@ -14179,46 +14124,46 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>1163</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>1165</v>
       </c>
       <c r="D92" s="5">
         <v>0.89999997615814</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="K92" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="L92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>1171</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>1173</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>118</v>
@@ -14236,7 +14181,7 @@
         <v>118</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U92" s="2">
         <v>0.5</v>
@@ -14256,46 +14201,46 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>1174</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>1176</v>
       </c>
       <c r="D93" s="5">
         <v>0.5799999833107</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="J93" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="L93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>1183</v>
       </c>
       <c r="O93" s="2">
         <v>220</v>
@@ -14322,7 +14267,7 @@
         <v>500</v>
       </c>
       <c r="W93" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="X93" s="2">
         <v>1800</v>
@@ -14333,46 +14278,46 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>1185</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>1187</v>
       </c>
       <c r="D94" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="K94" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="L94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>1193</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>1195</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>118</v>
@@ -14399,7 +14344,7 @@
         <v>550</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="X94" s="2">
         <v>3000</v>
@@ -14410,46 +14355,46 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>1197</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>1199</v>
       </c>
       <c r="D95" s="5">
         <v>0.6700000166893</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="K95" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="L95" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="M95" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="N95" s="2" t="s">
         <v>1207</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>1209</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>118</v>
@@ -14467,7 +14412,7 @@
         <v>118</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U95" s="2">
         <v>0.30000001192093</v>
@@ -14487,46 +14432,46 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>1210</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>1212</v>
       </c>
       <c r="D96" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="K96" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="L96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>1218</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>1220</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>118</v>
@@ -14544,7 +14489,7 @@
         <v>118</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U96" s="2">
         <v>0.60000002384186</v>
@@ -14564,46 +14509,46 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>1221</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>1223</v>
       </c>
       <c r="D97" s="5">
         <v>1.1499999761581</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="K97" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="L97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>1231</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>118</v>
@@ -14630,7 +14575,7 @@
         <v>480</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="X97" s="2">
         <v>1100</v>
@@ -14641,46 +14586,46 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>1235</v>
       </c>
       <c r="D98" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="K98" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="L98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N98" s="2" t="s">
         <v>1241</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>1243</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>118</v>
@@ -14698,7 +14643,7 @@
         <v>118</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U98" s="2">
         <v>0.40000000596046</v>
@@ -14718,13 +14663,13 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>1244</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>1246</v>
       </c>
       <c r="D99" s="5">
         <v>1</v>
@@ -14760,10 +14705,10 @@
         <v>0</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="U99" s="2">
         <v>0.5</v>
@@ -14783,46 +14728,46 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>1248</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>1250</v>
       </c>
       <c r="D100" s="5">
         <v>0.60000002384186</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="I100" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="J100" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="K100" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="L100" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="M100" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="N100" s="2" t="s">
         <v>1258</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>1259</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>1260</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>118</v>
@@ -14837,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>90</v>
@@ -14849,7 +14794,7 @@
         <v>700</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="X100" s="2">
         <v>900</v>
@@ -14860,46 +14805,46 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>1262</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>1264</v>
       </c>
       <c r="D101" s="5">
         <v>0.87999999523163</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="J101" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="K101" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="M101" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="L101" s="2" t="s">
+      <c r="N101" s="2" t="s">
         <v>1272</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>1274</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>118</v>
@@ -14926,7 +14871,7 @@
         <v>140</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="X101" s="2">
         <v>900</v>
@@ -14937,46 +14882,46 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>1276</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>1278</v>
       </c>
       <c r="D102" s="5">
         <v>1.1000000238419</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="K102" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="L102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N102" s="2" t="s">
         <v>1284</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>1285</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>1286</v>
       </c>
       <c r="O102" s="2">
         <v>300</v>
@@ -14994,7 +14939,7 @@
         <v>118</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U102" s="2">
         <v>0.30000001192093</v>
@@ -15014,46 +14959,46 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>1287</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>1289</v>
       </c>
       <c r="D103" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="K103" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="L103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N103" s="2" t="s">
         <v>1295</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>1296</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>1297</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>118</v>
@@ -15071,7 +15016,7 @@
         <v>118</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U103" s="2">
         <v>0.60000002384186</v>
@@ -15091,46 +15036,46 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>1298</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>1300</v>
       </c>
       <c r="D104" s="5">
         <v>0.80000001192093</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="J104" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="K104" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="L104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N104" s="2" t="s">
         <v>1306</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>1308</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>118</v>
@@ -15157,7 +15102,7 @@
         <v>500</v>
       </c>
       <c r="W104" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="X104" s="2">
         <v>900</v>
@@ -15168,46 +15113,46 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>1310</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>1312</v>
       </c>
       <c r="D105" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="M105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N105" s="2" t="s">
         <v>1319</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>1321</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>118</v>
@@ -15225,7 +15170,7 @@
         <v>118</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U105" s="2">
         <v>0.40000000596046</v>
@@ -15245,46 +15190,46 @@
     </row>
     <row r="106" spans="1:25">
       <c r="A106" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>1322</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>1324</v>
       </c>
       <c r="D106" s="5">
         <v>0.83999997377396</v>
       </c>
       <c r="E106" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>1327</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="K106" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="M106" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="N106" s="2" t="s">
         <v>1332</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>1333</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>1334</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>118</v>
@@ -15302,7 +15247,7 @@
         <v>118</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U106" s="2">
         <v>0.60000002384186</v>
@@ -15322,46 +15267,46 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>1335</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>1337</v>
       </c>
       <c r="D107" s="5">
         <v>0.89999997615814</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="K107" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="M107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N107" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>1346</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>118</v>
@@ -15388,7 +15333,7 @@
         <v>500</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="X107" s="2">
         <v>1200</v>
@@ -15399,46 +15344,46 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>1348</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>1350</v>
       </c>
       <c r="D108" s="5">
         <v>0.89999997615814</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="K108" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="L108" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="M108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N108" s="2" t="s">
         <v>1357</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>1359</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>118</v>
@@ -15456,7 +15401,7 @@
         <v>118</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U108" s="2">
         <v>0.36000001430511</v>
@@ -15476,46 +15421,46 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>1360</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>1362</v>
       </c>
       <c r="D109" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="K109" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="L109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N109" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>1370</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>118</v>
@@ -15533,7 +15478,7 @@
         <v>118</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U109" s="2">
         <v>0.30000001192093</v>
@@ -15553,46 +15498,46 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>1371</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>1373</v>
       </c>
       <c r="D110" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>1375</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="K110" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="L110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N110" s="2" t="s">
         <v>1379</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>1381</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>118</v>
@@ -15610,7 +15555,7 @@
         <v>118</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U110" s="2">
         <v>0.30000001192093</v>
@@ -15630,46 +15575,46 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>1382</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>1384</v>
       </c>
       <c r="D111" s="5">
         <v>0.98000001907349</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="K111" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="L111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N111" s="2" t="s">
         <v>1390</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>1391</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N111" s="2" t="s">
-        <v>1392</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>118</v>
@@ -15696,7 +15641,7 @@
         <v>400</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="X111" s="2">
         <v>1500</v>
@@ -15707,46 +15652,46 @@
     </row>
     <row r="112" spans="1:25">
       <c r="A112" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>1394</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>1396</v>
       </c>
       <c r="D112" s="5">
         <v>0.69999998807907</v>
       </c>
       <c r="E112" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="J112" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="K112" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="L112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N112" s="2" t="s">
         <v>1402</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>1404</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>118</v>
@@ -15773,7 +15718,7 @@
         <v>450</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="X112" s="2">
         <v>900</v>
@@ -15784,46 +15729,46 @@
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>1406</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>1408</v>
       </c>
       <c r="D113" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="J113" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="K113" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="L113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N113" s="2" t="s">
         <v>1414</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>1415</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>1416</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>118</v>
@@ -15850,7 +15795,7 @@
         <v>575</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="X113" s="2">
         <v>1200</v>
@@ -15861,46 +15806,46 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>1420</v>
       </c>
       <c r="D114" s="5">
         <v>0.6700000166893</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>1421</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="J114" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="K114" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="L114" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="M114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N114" s="2" t="s">
         <v>1427</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N114" s="2" t="s">
-        <v>1429</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>118</v>
@@ -15927,7 +15872,7 @@
         <v>600</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="X114" s="2">
         <v>900</v>
@@ -15938,46 +15883,46 @@
     </row>
     <row r="115" spans="1:25">
       <c r="A115" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>1431</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>1433</v>
       </c>
       <c r="D115" s="5">
         <v>0.85000002384186</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="J115" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="K115" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="L115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N115" s="2" t="s">
         <v>1439</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>1440</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>1441</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>118</v>
@@ -15995,7 +15940,7 @@
         <v>118</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U115" s="2">
         <v>0.34999999403954</v>
@@ -16015,46 +15960,46 @@
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>1442</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>1444</v>
       </c>
       <c r="D116" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>1445</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>1446</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="J116" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="K116" s="2" t="s">
         <v>1449</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="L116" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N116" s="2" t="s">
         <v>1450</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>1452</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>118</v>
@@ -16081,7 +16026,7 @@
         <v>600</v>
       </c>
       <c r="W116" s="2" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="X116" s="2">
         <v>1200</v>
@@ -16092,46 +16037,46 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>1454</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>1456</v>
       </c>
       <c r="D117" s="5">
         <v>0.74000000953674</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>1457</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>1458</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="K117" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="L117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N117" s="2" t="s">
         <v>1462</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>1464</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>118</v>
@@ -16158,7 +16103,7 @@
         <v>425</v>
       </c>
       <c r="W117" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="X117" s="2">
         <v>900</v>
@@ -16169,46 +16114,46 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>1466</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>1468</v>
       </c>
       <c r="D118" s="5">
         <v>0.98000001907349</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="K118" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="L118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N118" s="2" t="s">
         <v>1474</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>1476</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>118</v>
@@ -16235,7 +16180,7 @@
         <v>600</v>
       </c>
       <c r="W118" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="X118" s="2">
         <v>1250</v>
@@ -16246,46 +16191,46 @@
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>1478</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>1480</v>
       </c>
       <c r="D119" s="5">
         <v>1</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>1481</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="K119" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="L119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N119" s="2" t="s">
         <v>1486</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>118</v>
@@ -16300,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T119" s="2" t="s">
         <v>90</v>
@@ -16312,7 +16257,7 @@
         <v>425</v>
       </c>
       <c r="W119" s="2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="X119" s="2">
         <v>700</v>
@@ -16323,46 +16268,46 @@
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>1490</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>1492</v>
       </c>
       <c r="D120" s="5">
         <v>0.93000000715256</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="K120" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="L120" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N120" s="2" t="s">
         <v>1498</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>1500</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>118</v>
@@ -16389,7 +16334,7 @@
         <v>500</v>
       </c>
       <c r="W120" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="X120" s="2">
         <v>1200</v>
@@ -16400,46 +16345,46 @@
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C121" t="s">
         <v>1502</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1504</v>
       </c>
       <c r="D121" s="1">
         <v>0.83999997377396</v>
       </c>
       <c r="E121" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G121" t="s">
         <v>1505</v>
       </c>
-      <c r="F121" t="s">
+      <c r="H121" t="s">
         <v>1506</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I121" t="s">
         <v>1507</v>
       </c>
-      <c r="H121" t="s">
+      <c r="J121" t="s">
         <v>1508</v>
       </c>
-      <c r="I121" t="s">
+      <c r="K121" t="s">
         <v>1509</v>
       </c>
-      <c r="J121" t="s">
+      <c r="L121" t="s">
+        <v>116</v>
+      </c>
+      <c r="M121" t="s">
+        <v>116</v>
+      </c>
+      <c r="N121" t="s">
         <v>1510</v>
-      </c>
-      <c r="K121" t="s">
-        <v>1511</v>
-      </c>
-      <c r="L121" t="s">
-        <v>116</v>
-      </c>
-      <c r="M121" t="s">
-        <v>116</v>
-      </c>
-      <c r="N121" t="s">
-        <v>1512</v>
       </c>
       <c r="O121" t="s">
         <v>118</v>
@@ -16466,7 +16411,7 @@
         <v>600</v>
       </c>
       <c r="W121" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="X121">
         <v>1200</v>
@@ -16477,46 +16422,46 @@
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>1514</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>1515</v>
       </c>
       <c r="D122" s="5">
         <v>1</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="J122" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="K122" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="L122" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="L122" s="2" t="s">
+      <c r="M122" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N122" s="2" t="s">
         <v>1523</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>1524</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>118</v>
@@ -16543,7 +16488,7 @@
         <v>380</v>
       </c>
       <c r="W122" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="X122" s="2">
         <v>1100</v>

--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -12,7 +12,7 @@
     <sheet name="__Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">npc_heroes_custom!$A$1:$BB$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">npc_heroes_custom!$A$1:$BC$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="1525">
   <si>
     <t>主键</t>
   </si>
@@ -229,7 +229,10 @@
     <t>MagicalResistance</t>
   </si>
   <si>
-    <t>AbilityLayout</t>
+    <t>DisableWearables</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
   <si>
     <t>Creature[{]</t>
@@ -260,9 +263,6 @@
   </si>
   <si>
     <t>VisionNighttimeRange</t>
-  </si>
-  <si>
-    <t>DisableWearables</t>
   </si>
   <si>
     <t>npc_dota_hero_drow_ranger</t>
@@ -5341,19 +5341,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -5365,6 +5352,19 @@
       </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5738,16 +5738,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5901,7 +5901,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2AAE95D5-0E26-452C-9A23-15B6AC846E33}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7BE9CA23-CE5A-4917-81B4-CB13E8E4B46F}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -6182,12 +6182,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BF32"/>
+  <dimension ref="A1:BG32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6211,8 +6211,7 @@
     <col min="17" max="19" width="15.3416666666667" style="12" customWidth="1"/>
     <col min="20" max="20" width="3.625" style="12" customWidth="1"/>
     <col min="21" max="21" width="25.0083333333333" style="13" customWidth="1"/>
-    <col min="22" max="22" width="25.175" style="10" customWidth="1"/>
-    <col min="23" max="23" width="25.0083333333333" style="10" customWidth="1"/>
+    <col min="22" max="23" width="17.75" style="10" customWidth="1"/>
     <col min="24" max="24" width="23.3416666666667" style="10" customWidth="1"/>
     <col min="25" max="25" width="23.175" style="10" customWidth="1"/>
     <col min="26" max="26" width="25.675" style="10" customWidth="1"/>
@@ -6225,25 +6224,25 @@
     <col min="33" max="33" width="22.175" style="14" customWidth="1"/>
     <col min="34" max="34" width="22.5083333333333" style="14" customWidth="1"/>
     <col min="35" max="35" width="14.0083333333333" style="14" customWidth="1"/>
-    <col min="36" max="36" width="22.3416666666667" style="14" customWidth="1"/>
-    <col min="37" max="37" width="15.5083333333333" style="15" customWidth="1"/>
-    <col min="38" max="38" width="13.675" style="15" customWidth="1"/>
-    <col min="39" max="39" width="22.5083333333333" style="15" customWidth="1"/>
-    <col min="40" max="47" width="6.24166666666667" style="15" customWidth="1"/>
-    <col min="48" max="49" width="3.625" style="15" customWidth="1"/>
-    <col min="50" max="50" width="21.8416666666667" style="14" customWidth="1"/>
-    <col min="51" max="51" width="33.5083333333333" style="14" customWidth="1"/>
-    <col min="52" max="52" width="27.0083333333333" style="16" customWidth="1"/>
-    <col min="53" max="53" width="14.8416666666667" style="14" customWidth="1"/>
-    <col min="54" max="54" width="18.5083333333333" style="15" customWidth="1"/>
-    <col min="55" max="55" width="17.625" style="15" customWidth="1"/>
-    <col min="56" max="56" width="25.0083333333333" style="15" customWidth="1"/>
-    <col min="57" max="57" width="14.625" style="15" customWidth="1"/>
-    <col min="58" max="58" width="22.3416666666667" style="17" customWidth="1"/>
-    <col min="59" max="16384" width="9" style="15"/>
+    <col min="36" max="37" width="22.3416666666667" style="14" customWidth="1"/>
+    <col min="38" max="38" width="15.5083333333333" style="15" customWidth="1"/>
+    <col min="39" max="39" width="13.675" style="15" customWidth="1"/>
+    <col min="40" max="40" width="22.5083333333333" style="15" customWidth="1"/>
+    <col min="41" max="48" width="6.24166666666667" style="15" customWidth="1"/>
+    <col min="49" max="50" width="3.625" style="15" customWidth="1"/>
+    <col min="51" max="51" width="21.8416666666667" style="14" customWidth="1"/>
+    <col min="52" max="52" width="33.5083333333333" style="14" customWidth="1"/>
+    <col min="53" max="53" width="27.0083333333333" style="16" customWidth="1"/>
+    <col min="54" max="54" width="14.8416666666667" style="14" customWidth="1"/>
+    <col min="55" max="55" width="18.5083333333333" style="15" customWidth="1"/>
+    <col min="56" max="56" width="17.625" style="15" customWidth="1"/>
+    <col min="57" max="57" width="25.0083333333333" style="15" customWidth="1"/>
+    <col min="58" max="58" width="14.625" style="15" customWidth="1"/>
+    <col min="59" max="59" width="22.3416666666667" style="17" customWidth="1"/>
+    <col min="60" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="39" customHeight="1" spans="1:58">
+    <row r="1" s="7" customFormat="1" ht="39" customHeight="1" spans="1:59">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -6333,43 +6332,44 @@
         <v>24</v>
       </c>
       <c r="AK1" s="19"/>
-      <c r="AL1" s="19" t="s">
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AN1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AN1" s="19"/>
       <c r="AO1" s="19"/>
       <c r="AP1" s="19"/>
       <c r="AQ1" s="19"/>
       <c r="AR1" s="19"/>
       <c r="AS1" s="19"/>
       <c r="AT1" s="19"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="18" t="s">
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="AZ1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19" t="s">
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BC1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BD1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="BD1" s="19"/>
       <c r="BE1" s="19"/>
-      <c r="BF1" s="29"/>
-    </row>
-    <row r="2" s="8" customFormat="1" ht="39" customHeight="1" spans="1:58">
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="29"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="39" customHeight="1" spans="1:59">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
@@ -6485,40 +6485,40 @@
       <c r="AM2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" s="23">
+      <c r="AN2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO2" s="23">
         <v>1</v>
       </c>
-      <c r="AO2" s="23">
+      <c r="AP2" s="23">
         <v>2</v>
       </c>
-      <c r="AP2" s="23">
+      <c r="AQ2" s="23">
         <v>3</v>
       </c>
-      <c r="AQ2" s="23">
+      <c r="AR2" s="23">
         <v>4</v>
       </c>
-      <c r="AR2" s="23">
+      <c r="AS2" s="23">
         <v>5</v>
       </c>
-      <c r="AS2" s="23">
+      <c r="AT2" s="23">
         <v>6</v>
       </c>
-      <c r="AT2" s="23">
+      <c r="AU2" s="23">
         <v>7</v>
       </c>
-      <c r="AU2" s="35">
+      <c r="AV2" s="35">
         <v>8</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AW2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="46" t="s">
+      <c r="AX2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY2" s="21" t="s">
+      <c r="AY2" s="20" t="s">
         <v>69</v>
       </c>
       <c r="AZ2" s="21" t="s">
@@ -6539,11 +6539,14 @@
       <c r="BE2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="BF2" s="48" t="s">
+      <c r="BF2" s="21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="66" spans="1:58">
+      <c r="BG2" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="66" spans="1:59">
       <c r="A3" s="22" t="s">
         <v>77</v>
       </c>
@@ -6649,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="25"/>
       <c r="AM3" s="25"/>
@@ -6660,38 +6663,39 @@
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
       <c r="AT3" s="25"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="22">
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="22">
         <v>300</v>
       </c>
-      <c r="AY3" s="23" t="s">
+      <c r="AZ3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AZ3" s="23" t="s">
+      <c r="BA3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="BA3" s="23">
+      <c r="BB3" s="23">
         <v>60</v>
       </c>
-      <c r="BB3" s="23">
+      <c r="BC3" s="23">
         <v>1250</v>
       </c>
-      <c r="BC3" s="23">
+      <c r="BD3" s="23">
         <v>0</v>
       </c>
-      <c r="BD3" s="23">
+      <c r="BE3" s="23">
         <v>1200</v>
       </c>
-      <c r="BE3" s="23">
+      <c r="BF3" s="23">
         <v>600</v>
       </c>
-      <c r="BF3" s="35">
+      <c r="BG3" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="66" spans="1:58">
+    <row r="4" s="9" customFormat="1" ht="66" spans="1:59">
       <c r="A4" s="24" t="s">
         <v>92</v>
       </c>
@@ -6791,13 +6795,13 @@
         <v>0</v>
       </c>
       <c r="AI4" s="23">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AJ4" s="23">
         <v>0</v>
       </c>
       <c r="AK4" s="23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="23"/>
       <c r="AM4" s="23"/>
@@ -6808,38 +6812,39 @@
       <c r="AR4" s="23"/>
       <c r="AS4" s="23"/>
       <c r="AT4" s="23"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="24">
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="24">
         <v>300</v>
       </c>
-      <c r="AY4" s="23" t="s">
+      <c r="AZ4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AZ4" s="25" t="s">
+      <c r="BA4" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="BA4" s="25">
+      <c r="BB4" s="25">
         <v>60</v>
       </c>
-      <c r="BB4" s="23">
+      <c r="BC4" s="23">
         <v>1250</v>
       </c>
-      <c r="BC4" s="25">
+      <c r="BD4" s="25">
         <v>0</v>
       </c>
-      <c r="BD4" s="25">
+      <c r="BE4" s="25">
         <v>1200</v>
       </c>
-      <c r="BE4" s="25">
+      <c r="BF4" s="25">
         <v>600</v>
       </c>
-      <c r="BF4" s="38">
+      <c r="BG4" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="66.75" spans="1:58">
+    <row r="5" s="9" customFormat="1" ht="66.75" spans="1:59">
       <c r="A5" s="26" t="s">
         <v>97</v>
       </c>
@@ -6939,13 +6944,13 @@
         <v>0</v>
       </c>
       <c r="AI5" s="41">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AJ5" s="41">
         <v>0</v>
       </c>
       <c r="AK5" s="41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="41"/>
       <c r="AM5" s="41"/>
@@ -6956,38 +6961,39 @@
       <c r="AR5" s="41"/>
       <c r="AS5" s="41"/>
       <c r="AT5" s="41"/>
-      <c r="AU5" s="44"/>
+      <c r="AU5" s="41"/>
       <c r="AV5" s="42"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="26">
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="26">
         <v>300</v>
       </c>
-      <c r="AY5" s="27" t="s">
+      <c r="AZ5" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="AZ5" s="27" t="s">
+      <c r="BA5" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="BA5" s="27">
+      <c r="BB5" s="27">
         <v>60</v>
       </c>
-      <c r="BB5" s="23">
+      <c r="BC5" s="23">
         <v>1250</v>
       </c>
-      <c r="BC5" s="27">
+      <c r="BD5" s="27">
         <v>0</v>
       </c>
-      <c r="BD5" s="27">
+      <c r="BE5" s="27">
         <v>1200</v>
       </c>
-      <c r="BE5" s="27">
+      <c r="BF5" s="27">
         <v>600</v>
       </c>
-      <c r="BF5" s="39">
+      <c r="BG5" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="12:52">
+    <row r="6" ht="17.25" spans="12:53">
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -6997,9 +7003,9 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
-      <c r="AZ6" s="47"/>
-    </row>
-    <row r="7" spans="12:52">
+      <c r="BA6" s="47"/>
+    </row>
+    <row r="7" spans="12:53">
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -7009,9 +7015,9 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
-      <c r="AZ7" s="47"/>
-    </row>
-    <row r="8" spans="12:52">
+      <c r="BA7" s="47"/>
+    </row>
+    <row r="8" spans="12:53">
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -7021,9 +7027,9 @@
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
-      <c r="AZ8" s="47"/>
-    </row>
-    <row r="9" spans="12:52">
+      <c r="BA8" s="47"/>
+    </row>
+    <row r="9" spans="12:53">
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -7033,79 +7039,79 @@
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
-      <c r="AZ9" s="47"/>
-    </row>
-    <row r="10" spans="52:52">
-      <c r="AZ10" s="47"/>
-    </row>
-    <row r="11" spans="52:52">
-      <c r="AZ11" s="47"/>
-    </row>
-    <row r="12" spans="52:52">
-      <c r="AZ12" s="47"/>
-    </row>
-    <row r="13" spans="52:52">
-      <c r="AZ13" s="47"/>
-    </row>
-    <row r="14" spans="52:52">
-      <c r="AZ14" s="47"/>
-    </row>
-    <row r="15" spans="52:52">
-      <c r="AZ15" s="47"/>
-    </row>
-    <row r="16" spans="52:52">
-      <c r="AZ16" s="47"/>
-    </row>
-    <row r="17" spans="52:52">
-      <c r="AZ17" s="47"/>
-    </row>
-    <row r="18" spans="52:52">
-      <c r="AZ18" s="47"/>
-    </row>
-    <row r="19" spans="52:52">
-      <c r="AZ19" s="47"/>
-    </row>
-    <row r="20" spans="52:52">
-      <c r="AZ20" s="47"/>
-    </row>
-    <row r="21" spans="52:52">
-      <c r="AZ21" s="47"/>
-    </row>
-    <row r="22" spans="52:52">
-      <c r="AZ22" s="47"/>
-    </row>
-    <row r="23" spans="52:52">
-      <c r="AZ23" s="47"/>
-    </row>
-    <row r="24" spans="52:52">
-      <c r="AZ24" s="47"/>
-    </row>
-    <row r="25" spans="52:52">
-      <c r="AZ25" s="47"/>
-    </row>
-    <row r="26" spans="52:52">
-      <c r="AZ26" s="47"/>
-    </row>
-    <row r="27" spans="52:52">
-      <c r="AZ27" s="47"/>
-    </row>
-    <row r="28" spans="52:52">
-      <c r="AZ28" s="47"/>
-    </row>
-    <row r="29" spans="52:52">
-      <c r="AZ29" s="47"/>
-    </row>
-    <row r="30" spans="52:52">
-      <c r="AZ30" s="47"/>
-    </row>
-    <row r="31" spans="52:52">
-      <c r="AZ31" s="47"/>
-    </row>
-    <row r="32" spans="52:52">
-      <c r="AZ32" s="47"/>
+      <c r="BA9" s="47"/>
+    </row>
+    <row r="10" spans="53:53">
+      <c r="BA10" s="47"/>
+    </row>
+    <row r="11" spans="53:53">
+      <c r="BA11" s="47"/>
+    </row>
+    <row r="12" spans="53:53">
+      <c r="BA12" s="47"/>
+    </row>
+    <row r="13" spans="53:53">
+      <c r="BA13" s="47"/>
+    </row>
+    <row r="14" spans="53:53">
+      <c r="BA14" s="47"/>
+    </row>
+    <row r="15" spans="53:53">
+      <c r="BA15" s="47"/>
+    </row>
+    <row r="16" spans="53:53">
+      <c r="BA16" s="47"/>
+    </row>
+    <row r="17" spans="53:53">
+      <c r="BA17" s="47"/>
+    </row>
+    <row r="18" spans="53:53">
+      <c r="BA18" s="47"/>
+    </row>
+    <row r="19" spans="53:53">
+      <c r="BA19" s="47"/>
+    </row>
+    <row r="20" spans="53:53">
+      <c r="BA20" s="47"/>
+    </row>
+    <row r="21" spans="53:53">
+      <c r="BA21" s="47"/>
+    </row>
+    <row r="22" spans="53:53">
+      <c r="BA22" s="47"/>
+    </row>
+    <row r="23" spans="53:53">
+      <c r="BA23" s="47"/>
+    </row>
+    <row r="24" spans="53:53">
+      <c r="BA24" s="47"/>
+    </row>
+    <row r="25" spans="53:53">
+      <c r="BA25" s="47"/>
+    </row>
+    <row r="26" spans="53:53">
+      <c r="BA26" s="47"/>
+    </row>
+    <row r="27" spans="53:53">
+      <c r="BA27" s="47"/>
+    </row>
+    <row r="28" spans="53:53">
+      <c r="BA28" s="47"/>
+    </row>
+    <row r="29" spans="53:53">
+      <c r="BA29" s="47"/>
+    </row>
+    <row r="30" spans="53:53">
+      <c r="BA30" s="47"/>
+    </row>
+    <row r="31" spans="53:53">
+      <c r="BA31" s="47"/>
+    </row>
+    <row r="32" spans="53:53">
+      <c r="BA32" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BB5">
+  <autoFilter ref="A1:BC5">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="D$1:D$1048576">
@@ -7120,7 +7126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY$1:AY$1048576">
+  <conditionalFormatting sqref="AZ$1:AZ$1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>

--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -12,7 +12,7 @@
     <sheet name="__Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">npc_heroes_custom!$A$1:$BC$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">npc_heroes_custom!$A$1:$BC$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5904,7 +5904,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E780E886-809E-4C95-94AE-B108780D7039}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1ABD82A5-3AC6-4A26-BFBF-3BDB296675C4}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -6190,7 +6190,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7251,7 +7251,7 @@
       <c r="BA32" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BC5">
+  <autoFilter ref="A1:BC6">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="D$1:D$1048576">

--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -5903,7 +5903,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A0440F50-C4D8-4F4C-8CC3-16EF7FB5A708}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3F212CE2-3706-402E-BA23-221E2DC7EB10}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -6189,7 +6189,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6746,7 +6746,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="25">
         <v>101</v>
@@ -6907,7 +6907,7 @@
         <v>104</v>
       </c>
       <c r="D5" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="27">
         <v>2</v>
@@ -7068,7 +7068,7 @@
         <v>107</v>
       </c>
       <c r="D6" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="27">
         <v>8</v>

--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -333,9 +333,6 @@
     <t>{"Limit" "55"}</t>
   </si>
   <si>
-    <t>{"Base" "10"}</t>
-  </si>
-  <si>
     <t>DOTA_ATTRIBUTE_ALL</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
     <t>{
 "Base" "1"
 }</t>
+  </si>
+  <si>
+    <t>{"Base" "10"}</t>
   </si>
   <si>
     <t>npc_dota_hero_axe</t>
@@ -6193,9 +6193,9 @@
   <dimension ref="A1:BL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6655,11 +6655,11 @@
         <v>98</v>
       </c>
       <c r="X3" s="34" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Y3" s="37"/>
       <c r="Z3" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA3" s="25">
         <v>0</v>
@@ -6726,10 +6726,10 @@
         <v>300</v>
       </c>
       <c r="BE3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF3" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="BF3" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="BG3" s="23">
         <v>60</v>
@@ -6752,13 +6752,13 @@
     </row>
     <row r="4" s="9" customFormat="1" ht="49.5" spans="1:64">
       <c r="A4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>104</v>
-      </c>
       <c r="C4" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="25">
         <v>1</v>
@@ -6770,14 +6770,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="23" t="s">
         <v>90</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>90</v>
@@ -6789,7 +6789,7 @@
         <v>92</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O4" s="23" t="s">
         <v>94</v>
@@ -6819,11 +6819,11 @@
         <v>98</v>
       </c>
       <c r="X4" s="34" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Y4" s="37"/>
       <c r="Z4" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA4" s="23">
         <v>0</v>
@@ -6890,10 +6890,10 @@
         <v>300</v>
       </c>
       <c r="BE4" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF4" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="BF4" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="BG4" s="25">
         <v>60</v>
@@ -6941,7 +6941,7 @@
         <v>90</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>90</v>
@@ -6953,7 +6953,7 @@
         <v>92</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O5" s="23" t="s">
         <v>94</v>
@@ -6983,11 +6983,11 @@
         <v>98</v>
       </c>
       <c r="X5" s="34" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Y5" s="37"/>
       <c r="Z5" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA5" s="39">
         <v>0</v>
@@ -7057,7 +7057,7 @@
         <v>108</v>
       </c>
       <c r="BF5" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG5" s="27">
         <v>60</v>
@@ -7105,7 +7105,7 @@
         <v>90</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>90</v>
@@ -7117,7 +7117,7 @@
         <v>92</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O6" s="23" t="s">
         <v>94</v>
@@ -7147,11 +7147,11 @@
         <v>98</v>
       </c>
       <c r="X6" s="34" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Y6" s="37"/>
       <c r="Z6" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA6" s="39">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>108</v>
       </c>
       <c r="BF6" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG6" s="27">
         <v>60</v>
@@ -7749,7 +7749,7 @@
         <v>130</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U5" s="2">
         <v>0.44999998807907</v>
@@ -7903,7 +7903,7 @@
         <v>130</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U7" s="2">
         <v>0.30000001192093</v>
@@ -8057,7 +8057,7 @@
         <v>130</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U9" s="2">
         <v>0.30000001192093</v>
@@ -8122,7 +8122,7 @@
         <v>214</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U10" s="2">
         <v>0.75</v>
@@ -8199,7 +8199,7 @@
         <v>130</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U11" s="2">
         <v>0.30000001192093</v>
@@ -8892,7 +8892,7 @@
         <v>130</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U20" s="2">
         <v>0.5</v>
@@ -8969,7 +8969,7 @@
         <v>130</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U21" s="2">
         <v>0.69999998807907</v>
@@ -9046,7 +9046,7 @@
         <v>130</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U22" s="2">
         <v>0.44999998807907</v>
@@ -9200,7 +9200,7 @@
         <v>130</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U24" s="2">
         <v>0.30000001192093</v>
@@ -9277,7 +9277,7 @@
         <v>130</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U25" s="2">
         <v>0.30000001192093</v>
@@ -9354,7 +9354,7 @@
         <v>130</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U26" s="2">
         <v>0.56000000238419</v>
@@ -9431,7 +9431,7 @@
         <v>130</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U27" s="2">
         <v>0.40000000596046</v>
@@ -9662,7 +9662,7 @@
         <v>130</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U30" s="2">
         <v>0.64999997615814</v>
@@ -10047,7 +10047,7 @@
         <v>130</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U35" s="2">
         <v>0.30000001192093</v>
@@ -10124,7 +10124,7 @@
         <v>130</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U36" s="2">
         <v>0.40000000596046</v>
@@ -10278,7 +10278,7 @@
         <v>130</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U38" s="2">
         <v>0.40000000596046</v>
@@ -10355,7 +10355,7 @@
         <v>130</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U39" s="2">
         <v>0.34999999403954</v>
@@ -10432,7 +10432,7 @@
         <v>130</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U40" s="2">
         <v>0.20000000298023</v>
@@ -10509,7 +10509,7 @@
         <v>130</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U41" s="2">
         <v>0.30000001192093</v>
@@ -10586,7 +10586,7 @@
         <v>130</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U42" s="2">
         <v>0.40000000596046</v>
@@ -10663,7 +10663,7 @@
         <v>130</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U43" s="2">
         <v>0.40000000596046</v>
@@ -10817,7 +10817,7 @@
         <v>130</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U45" s="2">
         <v>0.30000001192093</v>
@@ -11048,7 +11048,7 @@
         <v>130</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U48" s="2">
         <v>0.40000000596046</v>
@@ -11125,7 +11125,7 @@
         <v>130</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U49" s="2">
         <v>0.46000000834465</v>
@@ -11279,7 +11279,7 @@
         <v>130</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U51" s="2">
         <v>0.75</v>
@@ -11356,7 +11356,7 @@
         <v>130</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U52" s="2">
         <v>0.43000000715256</v>
@@ -11433,7 +11433,7 @@
         <v>130</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U53" s="2">
         <v>0.33000001311302</v>
@@ -11510,7 +11510,7 @@
         <v>130</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U54" s="2">
         <v>0.46000000834465</v>
@@ -11818,7 +11818,7 @@
         <v>130</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U58" s="2">
         <v>0.5</v>
@@ -11972,7 +11972,7 @@
         <v>130</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U60" s="2">
         <v>0.34999999403954</v>
@@ -12126,7 +12126,7 @@
         <v>130</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U62" s="2">
         <v>0.5</v>
@@ -12280,7 +12280,7 @@
         <v>130</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U64" s="2">
         <v>0.40000000596046</v>
@@ -12357,7 +12357,7 @@
         <v>130</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U65" s="2">
         <v>0.5</v>
@@ -12588,7 +12588,7 @@
         <v>130</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U68" s="2">
         <v>0.46000000834465</v>
@@ -12819,7 +12819,7 @@
         <v>130</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U71" s="2">
         <v>0.30000001192093</v>
@@ -13127,7 +13127,7 @@
         <v>130</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U75" s="2">
         <v>0.34999999403954</v>
@@ -13204,7 +13204,7 @@
         <v>130</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U76" s="2">
         <v>0.5</v>
@@ -13358,7 +13358,7 @@
         <v>130</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U78" s="2">
         <v>0.5</v>
@@ -13435,7 +13435,7 @@
         <v>130</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U79" s="2">
         <v>0.56000000238419</v>
@@ -13589,7 +13589,7 @@
         <v>130</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U81" s="2">
         <v>0.30000001192093</v>
@@ -13743,7 +13743,7 @@
         <v>130</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U83" s="2">
         <v>0.40000000596046</v>
@@ -13897,7 +13897,7 @@
         <v>130</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U85" s="2">
         <v>0.34999999403954</v>
@@ -13974,7 +13974,7 @@
         <v>130</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U86" s="2">
         <v>0.30000001192093</v>
@@ -14128,7 +14128,7 @@
         <v>130</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U88" s="2">
         <v>0.5</v>
@@ -14228,7 +14228,7 @@
         <v>1150</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1151</v>
@@ -14282,7 +14282,7 @@
         <v>130</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U90" s="2">
         <v>0.40000000596046</v>
@@ -14513,7 +14513,7 @@
         <v>130</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U93" s="2">
         <v>0.34999999403954</v>
@@ -14590,7 +14590,7 @@
         <v>130</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U94" s="2">
         <v>0.17000000178814</v>
@@ -14821,7 +14821,7 @@
         <v>130</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U97" s="2">
         <v>0.5</v>
@@ -15040,7 +15040,7 @@
         <v>214</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U100" s="2">
         <v>0.5</v>
@@ -15117,7 +15117,7 @@
         <v>130</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U101" s="2">
         <v>0.30000001192093</v>
@@ -15348,7 +15348,7 @@
         <v>130</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U104" s="2">
         <v>0.34999999403954</v>
@@ -15579,7 +15579,7 @@
         <v>130</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U107" s="2">
         <v>0.30000001192093</v>
@@ -15887,7 +15887,7 @@
         <v>130</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U111" s="2">
         <v>0.33000001311302</v>
@@ -15964,7 +15964,7 @@
         <v>130</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U112" s="2">
         <v>0.30000001192093</v>
@@ -16041,7 +16041,7 @@
         <v>130</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U113" s="2">
         <v>0.33000001311302</v>
@@ -16118,7 +16118,7 @@
         <v>130</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U114" s="2">
         <v>0.46000000834465</v>
@@ -16272,7 +16272,7 @@
         <v>130</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U116" s="2">
         <v>0.30000001192093</v>
@@ -16349,7 +16349,7 @@
         <v>130</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U117" s="2">
         <v>0.63999998569489</v>
@@ -16426,7 +16426,7 @@
         <v>130</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U118" s="2">
         <v>0.40000000596046</v>
@@ -16503,7 +16503,7 @@
         <v>214</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U119" s="2">
         <v>0.25</v>
@@ -16580,7 +16580,7 @@
         <v>130</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U120" s="2">
         <v>0.15000000596046</v>
@@ -16657,7 +16657,7 @@
         <v>130</v>
       </c>
       <c r="T121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U121">
         <v>0.40000000596046</v>
@@ -16734,7 +16734,7 @@
         <v>130</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U122" s="2">
         <v>0.44999998807907</v>

--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -324,7 +324,10 @@
     <t>{"Base" "1.5"}</t>
   </si>
   <si>
-    <t>{"Base" "350"}</t>
+    <t>{
+"Base" "350"
+"Last" "0"
+}</t>
   </si>
   <si>
     <t>{"Base" "3"}</t>
@@ -5909,7 +5912,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1642A17F-8802-41FA-8CB7-DFCF6CAE9A10}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0800984F-6055-4F1A-9C73-8C4236BE4F40}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -6193,9 +6196,9 @@
   <dimension ref="A1:BL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X4" sqref="X4"/>
+      <selection pane="topRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6217,7 +6220,8 @@
     <col min="15" max="15" width="16.175" style="12" customWidth="1"/>
     <col min="16" max="16" width="14.5083333333333" style="12" customWidth="1"/>
     <col min="17" max="17" width="16.0083333333333" style="12" customWidth="1"/>
-    <col min="18" max="21" width="15.3416666666667" style="12" customWidth="1"/>
+    <col min="18" max="18" width="28.25" style="12" customWidth="1"/>
+    <col min="19" max="21" width="15.3416666666667" style="12" customWidth="1"/>
     <col min="22" max="24" width="19.25" style="12" customWidth="1"/>
     <col min="25" max="25" width="3.625" style="12" customWidth="1"/>
     <col min="26" max="26" width="25.0083333333333" style="13" customWidth="1"/>
@@ -6586,7 +6590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="49.5" spans="1:64">
+    <row r="3" s="9" customFormat="1" ht="66" spans="1:64">
       <c r="A3" s="22" t="s">
         <v>85</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="49.5" spans="1:64">
+    <row r="4" s="9" customFormat="1" ht="66" spans="1:64">
       <c r="A4" s="24" t="s">
         <v>102</v>
       </c>
@@ -6914,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="50.25" spans="1:64">
+    <row r="5" s="9" customFormat="1" ht="66.75" spans="1:64">
       <c r="A5" s="26" t="s">
         <v>106</v>
       </c>
@@ -7078,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" ht="51" spans="1:64">
+    <row r="6" s="9" customFormat="1" ht="67.5" spans="1:64">
       <c r="A6" s="26" t="s">
         <v>109</v>
       </c>

--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -342,7 +342,7 @@
     <t>{"Limit" "55"}</t>
   </si>
   <si>
-    <t>{"Base" "800"}</t>
+    <t>{"Base" "1000"}</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_ALL</t>
@@ -5649,7 +5649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -5737,20 +5737,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5930,7 +5921,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{067F3948-0FAC-4135-A9AC-79B827FFCD79}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A7AC74D4-6FBE-444B-83AC-3B2A59161C19}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -6216,7 +6207,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Y4" sqref="Y4"/>
+      <selection pane="topRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6343,10 +6334,10 @@
       <c r="X1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="36"/>
+      <c r="Z1" s="35"/>
       <c r="AA1" s="18" t="s">
         <v>22</v>
       </c>
@@ -6397,8 +6388,8 @@
       <c r="AZ1" s="19"/>
       <c r="BA1" s="19"/>
       <c r="BB1" s="29"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="44"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="41"/>
       <c r="BE1" s="18" t="s">
         <v>15</v>
       </c>
@@ -6490,10 +6481,10 @@
       <c r="X2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Z2" s="36" t="s">
         <v>59</v>
       </c>
       <c r="AA2" s="22" t="s">
@@ -6580,10 +6571,10 @@
       <c r="BB2" s="33">
         <v>8</v>
       </c>
-      <c r="BC2" s="45" t="s">
+      <c r="BC2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="BD2" s="46" t="s">
+      <c r="BD2" s="43" t="s">
         <v>59</v>
       </c>
       <c r="BE2" s="20" t="s">
@@ -6610,7 +6601,7 @@
       <c r="BL2" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="BM2" s="50" t="s">
+      <c r="BM2" s="47" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6685,10 +6676,10 @@
       <c r="X3" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="Y3" s="39" t="s">
+      <c r="Y3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="Z3" s="40"/>
+      <c r="Z3" s="37"/>
       <c r="AA3" s="24" t="s">
         <v>102</v>
       </c>
@@ -6750,9 +6741,9 @@
       <c r="AY3" s="25"/>
       <c r="AZ3" s="25"/>
       <c r="BA3" s="25"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="41"/>
       <c r="BE3" s="22">
         <v>300</v>
       </c>
@@ -6852,10 +6843,10 @@
       <c r="X4" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="Y4" s="39" t="s">
+      <c r="Y4" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="Z4" s="40"/>
+      <c r="Z4" s="37"/>
       <c r="AA4" s="22" t="s">
         <v>102</v>
       </c>
@@ -6918,8 +6909,8 @@
       <c r="AZ4" s="23"/>
       <c r="BA4" s="23"/>
       <c r="BB4" s="33"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="44"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="41"/>
       <c r="BE4" s="24">
         <v>300</v>
       </c>
@@ -6944,7 +6935,7 @@
       <c r="BL4" s="23">
         <v>0</v>
       </c>
-      <c r="BM4" s="47">
+      <c r="BM4" s="44">
         <v>0</v>
       </c>
     </row>
@@ -7019,74 +7010,74 @@
       <c r="X5" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="Y5" s="39" t="s">
+      <c r="Y5" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="41" t="s">
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="AB5" s="42">
+      <c r="AB5" s="39">
         <v>0</v>
       </c>
-      <c r="AC5" s="42">
+      <c r="AC5" s="39">
         <v>0</v>
       </c>
-      <c r="AD5" s="42">
+      <c r="AD5" s="39">
         <v>0</v>
       </c>
-      <c r="AE5" s="42">
+      <c r="AE5" s="39">
         <v>0</v>
       </c>
-      <c r="AF5" s="42">
+      <c r="AF5" s="39">
         <v>0</v>
       </c>
-      <c r="AG5" s="42">
+      <c r="AG5" s="39">
         <v>0</v>
       </c>
-      <c r="AH5" s="42">
+      <c r="AH5" s="39">
         <v>0</v>
       </c>
-      <c r="AI5" s="42">
+      <c r="AI5" s="39">
         <v>10</v>
       </c>
-      <c r="AJ5" s="42">
+      <c r="AJ5" s="39">
         <v>0</v>
       </c>
-      <c r="AK5" s="42">
+      <c r="AK5" s="39">
         <v>0</v>
       </c>
-      <c r="AL5" s="42">
+      <c r="AL5" s="39">
         <v>0</v>
       </c>
-      <c r="AM5" s="42">
+      <c r="AM5" s="39">
         <v>0</v>
       </c>
-      <c r="AN5" s="42">
+      <c r="AN5" s="39">
         <v>0</v>
       </c>
-      <c r="AO5" s="42">
+      <c r="AO5" s="39">
         <v>1.5</v>
       </c>
-      <c r="AP5" s="42">
+      <c r="AP5" s="39">
         <v>0</v>
       </c>
-      <c r="AQ5" s="42">
+      <c r="AQ5" s="39">
         <v>1</v>
       </c>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="44"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="41"/>
       <c r="BE5" s="26">
         <v>300</v>
       </c>
@@ -7111,7 +7102,7 @@
       <c r="BL5" s="23">
         <v>0</v>
       </c>
-      <c r="BM5" s="51">
+      <c r="BM5" s="48">
         <v>0</v>
       </c>
     </row>
@@ -7186,74 +7177,74 @@
       <c r="X6" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="Y6" s="39" t="s">
+      <c r="Y6" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="41" t="s">
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="AB6" s="42">
+      <c r="AB6" s="39">
         <v>0</v>
       </c>
-      <c r="AC6" s="42">
+      <c r="AC6" s="39">
         <v>0</v>
       </c>
-      <c r="AD6" s="42">
+      <c r="AD6" s="39">
         <v>0</v>
       </c>
-      <c r="AE6" s="42">
+      <c r="AE6" s="39">
         <v>0</v>
       </c>
-      <c r="AF6" s="42">
+      <c r="AF6" s="39">
         <v>0</v>
       </c>
-      <c r="AG6" s="42">
+      <c r="AG6" s="39">
         <v>0</v>
       </c>
-      <c r="AH6" s="42">
+      <c r="AH6" s="39">
         <v>0</v>
       </c>
-      <c r="AI6" s="42">
+      <c r="AI6" s="39">
         <v>10</v>
       </c>
-      <c r="AJ6" s="42">
+      <c r="AJ6" s="39">
         <v>0</v>
       </c>
-      <c r="AK6" s="42">
+      <c r="AK6" s="39">
         <v>0</v>
       </c>
-      <c r="AL6" s="42">
+      <c r="AL6" s="39">
         <v>0</v>
       </c>
-      <c r="AM6" s="42">
+      <c r="AM6" s="39">
         <v>0</v>
       </c>
-      <c r="AN6" s="42">
+      <c r="AN6" s="39">
         <v>0</v>
       </c>
-      <c r="AO6" s="42">
+      <c r="AO6" s="39">
         <v>1.5</v>
       </c>
-      <c r="AP6" s="42">
+      <c r="AP6" s="39">
         <v>0</v>
       </c>
-      <c r="AQ6" s="42">
+      <c r="AQ6" s="39">
         <v>1</v>
       </c>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="42"/>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="43"/>
-      <c r="BD6" s="44"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="40"/>
+      <c r="BD6" s="41"/>
       <c r="BE6" s="26">
         <v>300</v>
       </c>
@@ -7278,7 +7269,7 @@
       <c r="BL6" s="23">
         <v>0</v>
       </c>
-      <c r="BM6" s="51">
+      <c r="BM6" s="48">
         <v>0</v>
       </c>
     </row>
@@ -7297,7 +7288,7 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
-      <c r="BG7" s="49"/>
+      <c r="BG7" s="46"/>
     </row>
     <row r="8" spans="13:59">
       <c r="M8"/>
@@ -7314,7 +7305,7 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
-      <c r="BG8" s="49"/>
+      <c r="BG8" s="46"/>
     </row>
     <row r="9" spans="13:59">
       <c r="M9"/>
@@ -7331,76 +7322,76 @@
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
-      <c r="BG9" s="49"/>
+      <c r="BG9" s="46"/>
     </row>
     <row r="10" spans="59:59">
-      <c r="BG10" s="49"/>
+      <c r="BG10" s="46"/>
     </row>
     <row r="11" spans="59:59">
-      <c r="BG11" s="49"/>
+      <c r="BG11" s="46"/>
     </row>
     <row r="12" spans="59:59">
-      <c r="BG12" s="49"/>
+      <c r="BG12" s="46"/>
     </row>
     <row r="13" spans="59:59">
-      <c r="BG13" s="49"/>
+      <c r="BG13" s="46"/>
     </row>
     <row r="14" spans="59:59">
-      <c r="BG14" s="49"/>
+      <c r="BG14" s="46"/>
     </row>
     <row r="15" spans="59:59">
-      <c r="BG15" s="49"/>
+      <c r="BG15" s="46"/>
     </row>
     <row r="16" spans="59:59">
-      <c r="BG16" s="49"/>
+      <c r="BG16" s="46"/>
     </row>
     <row r="17" spans="59:59">
-      <c r="BG17" s="49"/>
+      <c r="BG17" s="46"/>
     </row>
     <row r="18" spans="59:59">
-      <c r="BG18" s="49"/>
+      <c r="BG18" s="46"/>
     </row>
     <row r="19" spans="59:59">
-      <c r="BG19" s="49"/>
+      <c r="BG19" s="46"/>
     </row>
     <row r="20" spans="59:59">
-      <c r="BG20" s="49"/>
+      <c r="BG20" s="46"/>
     </row>
     <row r="21" spans="59:59">
-      <c r="BG21" s="49"/>
+      <c r="BG21" s="46"/>
     </row>
     <row r="22" spans="59:59">
-      <c r="BG22" s="49"/>
+      <c r="BG22" s="46"/>
     </row>
     <row r="23" spans="59:59">
-      <c r="BG23" s="49"/>
+      <c r="BG23" s="46"/>
     </row>
     <row r="24" spans="59:59">
-      <c r="BG24" s="49"/>
+      <c r="BG24" s="46"/>
     </row>
     <row r="25" spans="59:59">
-      <c r="BG25" s="49"/>
+      <c r="BG25" s="46"/>
     </row>
     <row r="26" spans="59:59">
-      <c r="BG26" s="49"/>
+      <c r="BG26" s="46"/>
     </row>
     <row r="27" spans="59:59">
-      <c r="BG27" s="49"/>
+      <c r="BG27" s="46"/>
     </row>
     <row r="28" spans="59:59">
-      <c r="BG28" s="49"/>
+      <c r="BG28" s="46"/>
     </row>
     <row r="29" spans="59:59">
-      <c r="BG29" s="49"/>
+      <c r="BG29" s="46"/>
     </row>
     <row r="30" spans="59:59">
-      <c r="BG30" s="49"/>
+      <c r="BG30" s="46"/>
     </row>
     <row r="31" spans="59:59">
-      <c r="BG31" s="49"/>
+      <c r="BG31" s="46"/>
     </row>
     <row r="32" spans="59:59">
-      <c r="BG32" s="49"/>
+      <c r="BG32" s="46"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BI6" etc:filterBottomFollowUsedRange="0">

--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -351,7 +351,7 @@
     <t>{"Limit" "55"}</t>
   </si>
   <si>
-    <t>{"Base" "1000"}</t>
+    <t>{"Base" "1500"}</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_ALL</t>
@@ -5925,7 +5925,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C870BA39-ECBD-4E45-83C0-13638056A25D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{94B36A4F-404B-4A7D-993C-BC2EF3C74FD1}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -6211,7 +6211,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Y11" sqref="Y11"/>
+      <selection pane="topRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -5665,7 +5665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -5753,20 +5753,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5946,7 +5937,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{CC0407E9-9D1C-4E0F-B6D8-085C8F42068D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B317B8AA-ECD4-4669-8492-AC94450650AF}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -6230,9 +6221,9 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X5" sqref="X5"/>
+      <selection pane="topRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6365,8 +6356,8 @@
       <c r="Z1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="36"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="35"/>
       <c r="AC1" s="18" t="s">
         <v>23</v>
       </c>
@@ -6417,8 +6408,8 @@
       <c r="BB1" s="19"/>
       <c r="BC1" s="19"/>
       <c r="BD1" s="29"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="46"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="43"/>
       <c r="BG1" s="18" t="s">
         <v>16</v>
       </c>
@@ -6516,10 +6507,10 @@
       <c r="Z2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="38" t="s">
+      <c r="AB2" s="36" t="s">
         <v>61</v>
       </c>
       <c r="AC2" s="22" t="s">
@@ -6606,10 +6597,10 @@
       <c r="BD2" s="33">
         <v>8</v>
       </c>
-      <c r="BE2" s="47" t="s">
+      <c r="BE2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="BF2" s="48" t="s">
+      <c r="BF2" s="45" t="s">
         <v>61</v>
       </c>
       <c r="BG2" s="20" t="s">
@@ -6636,7 +6627,7 @@
       <c r="BN2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="BO2" s="50" t="s">
+      <c r="BO2" s="47" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6697,7 +6688,7 @@
         <v>101</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U3" s="34" t="s">
         <v>95</v>
@@ -6717,10 +6708,10 @@
       <c r="Z3" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AA3" s="39" t="s">
+      <c r="AA3" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AB3" s="40"/>
+      <c r="AB3" s="37"/>
       <c r="AC3" s="24" t="s">
         <v>106</v>
       </c>
@@ -6782,9 +6773,9 @@
       <c r="BA3" s="25"/>
       <c r="BB3" s="25"/>
       <c r="BC3" s="25"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="46"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="43"/>
       <c r="BG3" s="22">
         <v>300</v>
       </c>
@@ -6870,7 +6861,7 @@
         <v>101</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U4" s="34" t="s">
         <v>95</v>
@@ -6890,10 +6881,10 @@
       <c r="Z4" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AA4" s="39" t="s">
+      <c r="AA4" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AB4" s="40"/>
+      <c r="AB4" s="37"/>
       <c r="AC4" s="22" t="s">
         <v>106</v>
       </c>
@@ -6956,8 +6947,8 @@
       <c r="BB4" s="23"/>
       <c r="BC4" s="23"/>
       <c r="BD4" s="33"/>
-      <c r="BE4" s="45"/>
-      <c r="BF4" s="46"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="43"/>
       <c r="BG4" s="24">
         <v>300</v>
       </c>
@@ -6982,7 +6973,7 @@
       <c r="BN4" s="23">
         <v>0</v>
       </c>
-      <c r="BO4" s="43">
+      <c r="BO4" s="40">
         <v>0</v>
       </c>
     </row>
@@ -7039,7 +7030,7 @@
         <v>101</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U5" s="34" t="s">
         <v>95</v>
@@ -7059,74 +7050,74 @@
       <c r="Z5" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AA5" s="39" t="s">
+      <c r="AA5" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="41" t="s">
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="AD5" s="42">
+      <c r="AD5" s="39">
         <v>0</v>
       </c>
-      <c r="AE5" s="42">
+      <c r="AE5" s="39">
         <v>0</v>
       </c>
-      <c r="AF5" s="42">
+      <c r="AF5" s="39">
         <v>0</v>
       </c>
-      <c r="AG5" s="42">
+      <c r="AG5" s="39">
         <v>0</v>
       </c>
-      <c r="AH5" s="42">
+      <c r="AH5" s="39">
         <v>0</v>
       </c>
-      <c r="AI5" s="42">
+      <c r="AI5" s="39">
         <v>0</v>
       </c>
-      <c r="AJ5" s="42">
+      <c r="AJ5" s="39">
         <v>0</v>
       </c>
-      <c r="AK5" s="42">
+      <c r="AK5" s="39">
         <v>10</v>
       </c>
-      <c r="AL5" s="42">
+      <c r="AL5" s="39">
         <v>0</v>
       </c>
-      <c r="AM5" s="42">
+      <c r="AM5" s="39">
         <v>0</v>
       </c>
-      <c r="AN5" s="42">
+      <c r="AN5" s="39">
         <v>0</v>
       </c>
-      <c r="AO5" s="42">
+      <c r="AO5" s="39">
         <v>0</v>
       </c>
-      <c r="AP5" s="42">
+      <c r="AP5" s="39">
         <v>0</v>
       </c>
-      <c r="AQ5" s="42">
+      <c r="AQ5" s="39">
         <v>1.5</v>
       </c>
-      <c r="AR5" s="42">
+      <c r="AR5" s="39">
         <v>0</v>
       </c>
-      <c r="AS5" s="42">
+      <c r="AS5" s="39">
         <v>1</v>
       </c>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="46"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="43"/>
       <c r="BG5" s="26">
         <v>300</v>
       </c>
@@ -7151,7 +7142,7 @@
       <c r="BN5" s="23">
         <v>0</v>
       </c>
-      <c r="BO5" s="51">
+      <c r="BO5" s="48">
         <v>0</v>
       </c>
     </row>
@@ -7208,7 +7199,7 @@
         <v>101</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U6" s="34" t="s">
         <v>95</v>
@@ -7228,74 +7219,74 @@
       <c r="Z6" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AA6" s="39" t="s">
+      <c r="AA6" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="41" t="s">
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="AD6" s="42">
+      <c r="AD6" s="39">
         <v>0</v>
       </c>
-      <c r="AE6" s="42">
+      <c r="AE6" s="39">
         <v>0</v>
       </c>
-      <c r="AF6" s="42">
+      <c r="AF6" s="39">
         <v>0</v>
       </c>
-      <c r="AG6" s="42">
+      <c r="AG6" s="39">
         <v>0</v>
       </c>
-      <c r="AH6" s="42">
+      <c r="AH6" s="39">
         <v>0</v>
       </c>
-      <c r="AI6" s="42">
+      <c r="AI6" s="39">
         <v>0</v>
       </c>
-      <c r="AJ6" s="42">
+      <c r="AJ6" s="39">
         <v>0</v>
       </c>
-      <c r="AK6" s="42">
+      <c r="AK6" s="39">
         <v>10</v>
       </c>
-      <c r="AL6" s="42">
+      <c r="AL6" s="39">
         <v>0</v>
       </c>
-      <c r="AM6" s="42">
+      <c r="AM6" s="39">
         <v>0</v>
       </c>
-      <c r="AN6" s="42">
+      <c r="AN6" s="39">
         <v>0</v>
       </c>
-      <c r="AO6" s="42">
+      <c r="AO6" s="39">
         <v>0</v>
       </c>
-      <c r="AP6" s="42">
+      <c r="AP6" s="39">
         <v>0</v>
       </c>
-      <c r="AQ6" s="42">
+      <c r="AQ6" s="39">
         <v>1.5</v>
       </c>
-      <c r="AR6" s="42">
+      <c r="AR6" s="39">
         <v>0</v>
       </c>
-      <c r="AS6" s="42">
+      <c r="AS6" s="39">
         <v>1</v>
       </c>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="42"/>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="44"/>
-      <c r="BE6" s="45"/>
-      <c r="BF6" s="46"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="41"/>
+      <c r="BE6" s="42"/>
+      <c r="BF6" s="43"/>
       <c r="BG6" s="26">
         <v>300</v>
       </c>
@@ -7320,7 +7311,7 @@
       <c r="BN6" s="23">
         <v>0</v>
       </c>
-      <c r="BO6" s="51">
+      <c r="BO6" s="48">
         <v>0</v>
       </c>
     </row>
@@ -7340,7 +7331,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
       <c r="AB7"/>
-      <c r="BI7" s="49"/>
+      <c r="BI7" s="46"/>
     </row>
     <row r="8" spans="14:61">
       <c r="N8"/>
@@ -7358,7 +7349,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
-      <c r="BI8" s="49"/>
+      <c r="BI8" s="46"/>
     </row>
     <row r="9" spans="14:61">
       <c r="N9"/>
@@ -7376,76 +7367,76 @@
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
-      <c r="BI9" s="49"/>
+      <c r="BI9" s="46"/>
     </row>
     <row r="10" spans="61:61">
-      <c r="BI10" s="49"/>
+      <c r="BI10" s="46"/>
     </row>
     <row r="11" spans="61:61">
-      <c r="BI11" s="49"/>
+      <c r="BI11" s="46"/>
     </row>
     <row r="12" spans="61:61">
-      <c r="BI12" s="49"/>
+      <c r="BI12" s="46"/>
     </row>
     <row r="13" spans="61:61">
-      <c r="BI13" s="49"/>
+      <c r="BI13" s="46"/>
     </row>
     <row r="14" spans="61:61">
-      <c r="BI14" s="49"/>
+      <c r="BI14" s="46"/>
     </row>
     <row r="15" spans="61:61">
-      <c r="BI15" s="49"/>
+      <c r="BI15" s="46"/>
     </row>
     <row r="16" spans="61:61">
-      <c r="BI16" s="49"/>
+      <c r="BI16" s="46"/>
     </row>
     <row r="17" spans="61:61">
-      <c r="BI17" s="49"/>
+      <c r="BI17" s="46"/>
     </row>
     <row r="18" spans="61:61">
-      <c r="BI18" s="49"/>
+      <c r="BI18" s="46"/>
     </row>
     <row r="19" spans="61:61">
-      <c r="BI19" s="49"/>
+      <c r="BI19" s="46"/>
     </row>
     <row r="20" spans="61:61">
-      <c r="BI20" s="49"/>
+      <c r="BI20" s="46"/>
     </row>
     <row r="21" spans="61:61">
-      <c r="BI21" s="49"/>
+      <c r="BI21" s="46"/>
     </row>
     <row r="22" spans="61:61">
-      <c r="BI22" s="49"/>
+      <c r="BI22" s="46"/>
     </row>
     <row r="23" spans="61:61">
-      <c r="BI23" s="49"/>
+      <c r="BI23" s="46"/>
     </row>
     <row r="24" spans="61:61">
-      <c r="BI24" s="49"/>
+      <c r="BI24" s="46"/>
     </row>
     <row r="25" spans="61:61">
-      <c r="BI25" s="49"/>
+      <c r="BI25" s="46"/>
     </row>
     <row r="26" spans="61:61">
-      <c r="BI26" s="49"/>
+      <c r="BI26" s="46"/>
     </row>
     <row r="27" spans="61:61">
-      <c r="BI27" s="49"/>
+      <c r="BI27" s="46"/>
     </row>
     <row r="28" spans="61:61">
-      <c r="BI28" s="49"/>
+      <c r="BI28" s="46"/>
     </row>
     <row r="29" spans="61:61">
-      <c r="BI29" s="49"/>
+      <c r="BI29" s="46"/>
     </row>
     <row r="30" spans="61:61">
-      <c r="BI30" s="49"/>
+      <c r="BI30" s="46"/>
     </row>
     <row r="31" spans="61:61">
-      <c r="BI31" s="49"/>
+      <c r="BI31" s="46"/>
     </row>
     <row r="32" spans="61:61">
-      <c r="BI32" s="49"/>
+      <c r="BI32" s="46"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BK6" etc:filterBottomFollowUsedRange="0">

--- a/excels/npc_heroes_custom.xlsx
+++ b/excels/npc_heroes_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="323"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="323"/>
   </bookViews>
   <sheets>
     <sheet name="npc_heroes_custom" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="1543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1543">
   <si>
     <t>主键</t>
   </si>
@@ -370,10 +370,10 @@
     <t>DOTA_HULL_SIZE_SMALL</t>
   </si>
   <si>
+    <t>法爷</t>
+  </si>
+  <si>
     <t>npc_dota_hero_skywrath_mage</t>
-  </si>
-  <si>
-    <t>法爷</t>
   </si>
   <si>
     <t>modifier_talent_effect_skywrath</t>
@@ -5937,7 +5937,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B317B8AA-ECD4-4669-8492-AC94450650AF}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2EC03A0B-A818-497A-B17F-E13EC5E11034}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -6221,9 +6221,9 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S6" sqref="S6"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6805,14 +6805,12 @@
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="66" spans="1:67">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>109</v>
       </c>
       <c r="D4" s="25">
         <v>1</v>
@@ -6824,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>111</v>
@@ -14307,7 +14305,7 @@
         <v>1157</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1158</v>
